--- a/JupyterNotebooks/AvgHW/GossF-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -73,25 +85,25 @@
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -737,22 +629,22 @@
         <v>0.9984801509501645</v>
       </c>
       <c r="D3">
+        <v>1.007479220619864</v>
+      </c>
+      <c r="E3">
+        <v>0.9969114903208507</v>
+      </c>
+      <c r="F3">
+        <v>1.00116058231535</v>
+      </c>
+      <c r="G3">
+        <v>1.002263644948268</v>
+      </c>
+      <c r="H3">
         <v>0.9967110786392752</v>
       </c>
-      <c r="E3">
-        <v>1.002263644948268</v>
-      </c>
-      <c r="F3">
+      <c r="I3">
         <v>0.9984801509501645</v>
-      </c>
-      <c r="G3">
-        <v>1.007479220619864</v>
-      </c>
-      <c r="H3">
-        <v>0.9969114903208507</v>
-      </c>
-      <c r="I3">
-        <v>1.00116058231535</v>
       </c>
       <c r="J3">
         <v>0.9967110786392752</v>
@@ -788,7 +680,7 @@
         <v>1.000501027965629</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -799,22 +691,22 @@
         <v>0.9969679277897998</v>
       </c>
       <c r="D4">
+        <v>1.014508918581146</v>
+      </c>
+      <c r="E4">
+        <v>0.9940434323072934</v>
+      </c>
+      <c r="F4">
+        <v>1.00224044240491</v>
+      </c>
+      <c r="G4">
+        <v>1.00441020513607</v>
+      </c>
+      <c r="H4">
         <v>0.9936588932057756</v>
       </c>
-      <c r="E4">
-        <v>1.00441020513607</v>
-      </c>
-      <c r="F4">
+      <c r="I4">
         <v>0.9969679277897998</v>
-      </c>
-      <c r="G4">
-        <v>1.014508918581146</v>
-      </c>
-      <c r="H4">
-        <v>0.9940434323072934</v>
-      </c>
-      <c r="I4">
-        <v>1.00224044240491</v>
       </c>
       <c r="J4">
         <v>0.9936588932057756</v>
@@ -850,7 +742,7 @@
         <v>1.000971636570833</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -861,22 +753,22 @@
         <v>0.9949831284655811</v>
       </c>
       <c r="D5">
+        <v>1.027003239377252</v>
+      </c>
+      <c r="E5">
+        <v>0.9885520177639171</v>
+      </c>
+      <c r="F5">
+        <v>1.004335721027362</v>
+      </c>
+      <c r="G5">
+        <v>1.008184537478926</v>
+      </c>
+      <c r="H5">
         <v>0.9874610085842321</v>
       </c>
-      <c r="E5">
-        <v>1.008184537478926</v>
-      </c>
-      <c r="F5">
+      <c r="I5">
         <v>0.9949831284655811</v>
-      </c>
-      <c r="G5">
-        <v>1.027003239377252</v>
-      </c>
-      <c r="H5">
-        <v>0.9885520177639171</v>
-      </c>
-      <c r="I5">
-        <v>1.004335721027362</v>
       </c>
       <c r="J5">
         <v>0.9874610085842321</v>
@@ -912,7 +804,7 @@
         <v>1.001753275449545</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -923,22 +815,22 @@
         <v>0.9930056534270264</v>
       </c>
       <c r="D6">
+        <v>1.039218443932764</v>
+      </c>
+      <c r="E6">
+        <v>0.9832015947545938</v>
+      </c>
+      <c r="F6">
+        <v>1.006379915525419</v>
+      </c>
+      <c r="G6">
+        <v>1.011883745235539</v>
+      </c>
+      <c r="H6">
         <v>0.9813808582936223</v>
       </c>
-      <c r="E6">
-        <v>1.011883745235539</v>
-      </c>
-      <c r="F6">
+      <c r="I6">
         <v>0.9930056534270264</v>
-      </c>
-      <c r="G6">
-        <v>1.039218443932764</v>
-      </c>
-      <c r="H6">
-        <v>0.9832015947545938</v>
-      </c>
-      <c r="I6">
-        <v>1.006379915525418</v>
       </c>
       <c r="J6">
         <v>0.9813808582936223</v>
@@ -974,7 +866,7 @@
         <v>1.002511701861494</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,40 +877,40 @@
         <v>1.000320980767071</v>
       </c>
       <c r="D7">
-        <v>0.9997197167459833</v>
+        <v>0.9998497590001297</v>
       </c>
       <c r="E7">
-        <v>0.9999446055374837</v>
+        <v>0.9998934257610904</v>
       </c>
       <c r="F7">
+        <v>1.000054333257085</v>
+      </c>
+      <c r="G7">
+        <v>0.9999446055374834</v>
+      </c>
+      <c r="H7">
+        <v>0.9997197167459836</v>
+      </c>
+      <c r="I7">
         <v>1.000320980767071</v>
       </c>
-      <c r="G7">
-        <v>0.9998497590001298</v>
-      </c>
-      <c r="H7">
-        <v>0.9998934257610902</v>
-      </c>
-      <c r="I7">
-        <v>1.000054333257085</v>
-      </c>
       <c r="J7">
-        <v>0.9997197167459833</v>
+        <v>0.9997197167459836</v>
       </c>
       <c r="K7">
         <v>1.000320980767071</v>
       </c>
       <c r="L7">
-        <v>0.9999446055374837</v>
+        <v>0.9999446055374834</v>
       </c>
       <c r="M7">
-        <v>0.9998321611417335</v>
+        <v>0.9998321611417336</v>
       </c>
       <c r="N7">
-        <v>0.9998321611417335</v>
+        <v>0.9998321611417336</v>
       </c>
       <c r="O7">
-        <v>0.9998525826815191</v>
+        <v>0.9998525826815192</v>
       </c>
       <c r="P7">
         <v>0.9999951010168461</v>
@@ -1033,10 +925,10 @@
         <v>1.000076570954402</v>
       </c>
       <c r="T7">
-        <v>0.999963803511474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>0.9999638035114738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1047,40 +939,40 @@
         <v>1.000646783850277</v>
       </c>
       <c r="D8">
-        <v>0.9997110926159409</v>
+        <v>0.9994621346108097</v>
       </c>
       <c r="E8">
-        <v>0.9997899678393787</v>
+        <v>0.999934110443117</v>
       </c>
       <c r="F8">
+        <v>1.000039765542676</v>
+      </c>
+      <c r="G8">
+        <v>0.999789967839379</v>
+      </c>
+      <c r="H8">
+        <v>0.9997110926159413</v>
+      </c>
+      <c r="I8">
         <v>1.000646783850277</v>
       </c>
-      <c r="G8">
-        <v>0.9994621346108102</v>
-      </c>
-      <c r="H8">
-        <v>0.9999341104431165</v>
-      </c>
-      <c r="I8">
-        <v>1.000039765542676</v>
-      </c>
       <c r="J8">
-        <v>0.9997110926159409</v>
+        <v>0.9997110926159413</v>
       </c>
       <c r="K8">
         <v>1.000646783850277</v>
       </c>
       <c r="L8">
-        <v>0.9997899678393787</v>
+        <v>0.999789967839379</v>
       </c>
       <c r="M8">
-        <v>0.9997505302276598</v>
+        <v>0.9997505302276601</v>
       </c>
       <c r="N8">
-        <v>0.9997505302276598</v>
+        <v>0.9997505302276601</v>
       </c>
       <c r="O8">
-        <v>0.999811723632812</v>
+        <v>0.9998117236328125</v>
       </c>
       <c r="P8">
         <v>1.000049281435199</v>
@@ -1098,7 +990,7 @@
         <v>0.9999306424836999</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1109,22 +1001,22 @@
         <v>1.00055188611362</v>
       </c>
       <c r="D9">
+        <v>0.9990080388634269</v>
+      </c>
+      <c r="E9">
+        <v>1.000283227568951</v>
+      </c>
+      <c r="F9">
+        <v>0.9998736861111206</v>
+      </c>
+      <c r="G9">
+        <v>0.9995945964503098</v>
+      </c>
+      <c r="H9">
         <v>1.000396982951842</v>
       </c>
-      <c r="E9">
-        <v>0.9995945964503098</v>
-      </c>
-      <c r="F9">
+      <c r="I9">
         <v>1.00055188611362</v>
-      </c>
-      <c r="G9">
-        <v>0.9990080388634267</v>
-      </c>
-      <c r="H9">
-        <v>1.000283227568951</v>
-      </c>
-      <c r="I9">
-        <v>0.9998736861111206</v>
       </c>
       <c r="J9">
         <v>1.000396982951842</v>
@@ -1160,7 +1052,7 @@
         <v>0.9999514030098785</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1171,22 +1063,22 @@
         <v>1.001568509281302</v>
       </c>
       <c r="D10">
+        <v>0.9980177367932583</v>
+      </c>
+      <c r="E10">
+        <v>1.000268099548613</v>
+      </c>
+      <c r="F10">
+        <v>0.9998958934142397</v>
+      </c>
+      <c r="G10">
+        <v>0.9992075800409874</v>
+      </c>
+      <c r="H10">
         <v>1.000099388044863</v>
       </c>
-      <c r="E10">
-        <v>0.9992075800409874</v>
-      </c>
-      <c r="F10">
+      <c r="I10">
         <v>1.001568509281302</v>
-      </c>
-      <c r="G10">
-        <v>0.9980177367932583</v>
-      </c>
-      <c r="H10">
-        <v>1.000268099548613</v>
-      </c>
-      <c r="I10">
-        <v>0.9998958934142397</v>
       </c>
       <c r="J10">
         <v>1.000099388044863</v>
@@ -1222,7 +1114,7 @@
         <v>0.9998428678538772</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,31 +1122,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.001780038078882</v>
+        <v>1.001780038078881</v>
       </c>
       <c r="D11">
+        <v>0.9962192039899348</v>
+      </c>
+      <c r="E11">
+        <v>1.001296856437085</v>
+      </c>
+      <c r="F11">
+        <v>0.9994059346680152</v>
+      </c>
+      <c r="G11">
+        <v>0.9984289376874705</v>
+      </c>
+      <c r="H11">
         <v>1.002057596536896</v>
       </c>
-      <c r="E11">
-        <v>0.9984289376874705</v>
-      </c>
-      <c r="F11">
-        <v>1.001780038078882</v>
-      </c>
-      <c r="G11">
-        <v>0.9962192039899348</v>
-      </c>
-      <c r="H11">
-        <v>1.001296856437085</v>
-      </c>
       <c r="I11">
-        <v>0.9994059346680152</v>
+        <v>1.001780038078881</v>
       </c>
       <c r="J11">
         <v>1.002057596536896</v>
       </c>
       <c r="K11">
-        <v>1.001780038078882</v>
+        <v>1.001780038078881</v>
       </c>
       <c r="L11">
         <v>0.9984289376874705</v>
@@ -1284,7 +1176,7 @@
         <v>0.9998647612330473</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,61 +1184,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9877932451931217</v>
+        <v>0.9877932451931216</v>
       </c>
       <c r="D12">
+        <v>1.012353087906899</v>
+      </c>
+      <c r="E12">
+        <v>0.9958367111768504</v>
+      </c>
+      <c r="F12">
+        <v>1.003277000515178</v>
+      </c>
+      <c r="G12">
+        <v>1.009648920589846</v>
+      </c>
+      <c r="H12">
         <v>0.9842976226294291</v>
       </c>
-      <c r="E12">
-        <v>1.009648920589846</v>
-      </c>
-      <c r="F12">
-        <v>0.9877932451931217</v>
-      </c>
-      <c r="G12">
-        <v>1.012353087906899</v>
-      </c>
-      <c r="H12">
-        <v>0.9958367111768501</v>
-      </c>
       <c r="I12">
-        <v>1.003277000515178</v>
+        <v>0.9877932451931216</v>
       </c>
       <c r="J12">
         <v>0.9842976226294291</v>
       </c>
       <c r="K12">
-        <v>0.9877932451931217</v>
+        <v>0.9877932451931216</v>
       </c>
       <c r="L12">
         <v>1.009648920589846</v>
       </c>
       <c r="M12">
-        <v>0.9969732716096377</v>
+        <v>0.9969732716096378</v>
       </c>
       <c r="N12">
-        <v>0.9969732716096377</v>
+        <v>0.9969732716096378</v>
       </c>
       <c r="O12">
-        <v>0.9965944181320419</v>
+        <v>0.996594418132042</v>
       </c>
       <c r="P12">
-        <v>0.9939132628041323</v>
+        <v>0.9939132628041324</v>
       </c>
       <c r="Q12">
-        <v>0.9939132628041323</v>
+        <v>0.9939132628041324</v>
       </c>
       <c r="R12">
-        <v>0.9923832584013796</v>
+        <v>0.9923832584013798</v>
       </c>
       <c r="S12">
-        <v>0.9923832584013796</v>
+        <v>0.9923832584013798</v>
       </c>
       <c r="T12">
-        <v>0.998867764668554</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+        <v>0.9988677646685543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1357,22 +1249,22 @@
         <v>1.012417350723668</v>
       </c>
       <c r="D13">
+        <v>1.001769513228698</v>
+      </c>
+      <c r="E13">
+        <v>0.9972891075569355</v>
+      </c>
+      <c r="F13">
+        <v>0.9991714166296326</v>
+      </c>
+      <c r="G13">
+        <v>0.9937204182804564</v>
+      </c>
+      <c r="H13">
         <v>1.008235246009658</v>
       </c>
-      <c r="E13">
-        <v>0.9937204182804563</v>
-      </c>
-      <c r="F13">
+      <c r="I13">
         <v>1.012417350723668</v>
-      </c>
-      <c r="G13">
-        <v>1.001769513228698</v>
-      </c>
-      <c r="H13">
-        <v>0.9972891075569357</v>
-      </c>
-      <c r="I13">
-        <v>0.9991714166296327</v>
       </c>
       <c r="J13">
         <v>1.008235246009658</v>
@@ -1381,7 +1273,7 @@
         <v>1.012417350723668</v>
       </c>
       <c r="L13">
-        <v>0.9937204182804563</v>
+        <v>0.9937204182804564</v>
       </c>
       <c r="M13">
         <v>1.000977832145057</v>
@@ -1390,7 +1282,7 @@
         <v>1.000977832145057</v>
       </c>
       <c r="O13">
-        <v>0.99974825728235</v>
+        <v>0.9997482572823498</v>
       </c>
       <c r="P13">
         <v>1.004791005004594</v>
@@ -1408,7 +1300,7 @@
         <v>1.002100508738175</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1419,22 +1311,22 @@
         <v>0.7094658101932654</v>
       </c>
       <c r="D14">
+        <v>0.4456680743781916</v>
+      </c>
+      <c r="E14">
+        <v>1.517071100800389</v>
+      </c>
+      <c r="F14">
+        <v>0.759973291157334</v>
+      </c>
+      <c r="G14">
+        <v>0.7807582616836947</v>
+      </c>
+      <c r="H14">
         <v>1.987291489559742</v>
       </c>
-      <c r="E14">
-        <v>0.7807582616836948</v>
-      </c>
-      <c r="F14">
+      <c r="I14">
         <v>0.7094658101932654</v>
-      </c>
-      <c r="G14">
-        <v>0.4456680743781916</v>
-      </c>
-      <c r="H14">
-        <v>1.517071100800389</v>
-      </c>
-      <c r="I14">
-        <v>0.7599732911573341</v>
       </c>
       <c r="J14">
         <v>1.987291489559742</v>
@@ -1443,7 +1335,7 @@
         <v>0.7094658101932654</v>
       </c>
       <c r="L14">
-        <v>0.7807582616836948</v>
+        <v>0.7807582616836947</v>
       </c>
       <c r="M14">
         <v>1.384024875621718</v>
@@ -1470,7 +1362,7 @@
         <v>1.033371337962103</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1481,22 +1373,22 @@
         <v>0.956837608256232</v>
       </c>
       <c r="D15">
+        <v>0.8001049906340567</v>
+      </c>
+      <c r="E15">
+        <v>1.137938637739547</v>
+      </c>
+      <c r="F15">
+        <v>0.94084302729389</v>
+      </c>
+      <c r="G15">
+        <v>0.9342608909187008</v>
+      </c>
+      <c r="H15">
         <v>1.220094472832538</v>
       </c>
-      <c r="E15">
-        <v>0.9342608909187008</v>
-      </c>
-      <c r="F15">
+      <c r="I15">
         <v>0.956837608256232</v>
-      </c>
-      <c r="G15">
-        <v>0.8001049906340567</v>
-      </c>
-      <c r="H15">
-        <v>1.137938637739547</v>
-      </c>
-      <c r="I15">
-        <v>0.94084302729389</v>
       </c>
       <c r="J15">
         <v>1.220094472832538</v>
@@ -1532,7 +1424,7 @@
         <v>0.9983466046124941</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000806786820845</v>
+        <v>0.9778480483613802</v>
       </c>
       <c r="D16">
-        <v>0.9993718849098129</v>
+        <v>1.136541479230731</v>
       </c>
       <c r="E16">
-        <v>0.9997737076151757</v>
+        <v>0.9396545218474333</v>
       </c>
       <c r="F16">
-        <v>1.000806786820845</v>
+        <v>1.023288839586594</v>
       </c>
       <c r="G16">
-        <v>0.9990578801361627</v>
+        <v>1.041988759653279</v>
       </c>
       <c r="H16">
-        <v>0.999964247860113</v>
+        <v>0.9298906180552243</v>
       </c>
       <c r="I16">
-        <v>1.000074894068761</v>
+        <v>0.9778480483613802</v>
       </c>
       <c r="J16">
-        <v>0.9993718849098129</v>
+        <v>0.9298906180552243</v>
       </c>
       <c r="K16">
-        <v>1.000806786820845</v>
+        <v>0.9778480483613802</v>
       </c>
       <c r="L16">
-        <v>0.9997737076151757</v>
+        <v>1.041988759653279</v>
       </c>
       <c r="M16">
-        <v>0.9995727962624943</v>
+        <v>0.9859396888542518</v>
       </c>
       <c r="N16">
-        <v>0.9995727962624943</v>
+        <v>0.9859396888542518</v>
       </c>
       <c r="O16">
-        <v>0.9997032801283673</v>
+        <v>0.9705112998519789</v>
       </c>
       <c r="P16">
-        <v>0.9999841264486112</v>
+        <v>0.9832424753566279</v>
       </c>
       <c r="Q16">
-        <v>0.9999841264486112</v>
+        <v>0.9832424753566279</v>
       </c>
       <c r="R16">
-        <v>1.00018979154167</v>
+        <v>0.9818938686078159</v>
       </c>
       <c r="S16">
-        <v>1.00018979154167</v>
+        <v>0.9818938686078159</v>
       </c>
       <c r="T16">
-        <v>0.9998415669018117</v>
+        <v>1.008202044455774</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9994329870525497</v>
+        <v>0.9983778323287862</v>
       </c>
       <c r="D17">
-        <v>1.000142786748789</v>
+        <v>1.093002971614116</v>
       </c>
       <c r="E17">
-        <v>1.00030345129486</v>
+        <v>0.9503311839597405</v>
       </c>
       <c r="F17">
-        <v>0.9994329870525497</v>
+        <v>1.020104848993438</v>
       </c>
       <c r="G17">
-        <v>1.001250920401314</v>
+        <v>1.029046013161774</v>
       </c>
       <c r="H17">
-        <v>0.9997388807790615</v>
+        <v>0.9325039064806194</v>
       </c>
       <c r="I17">
-        <v>1.000049668454275</v>
+        <v>0.9983778323287862</v>
       </c>
       <c r="J17">
-        <v>1.000142786748789</v>
+        <v>0.9325039064806194</v>
       </c>
       <c r="K17">
-        <v>0.9994329870525497</v>
+        <v>0.9983778323287862</v>
       </c>
       <c r="L17">
-        <v>1.00030345129486</v>
+        <v>1.029046013161774</v>
       </c>
       <c r="M17">
-        <v>1.000223119021824</v>
+        <v>0.9807749598211968</v>
       </c>
       <c r="N17">
-        <v>1.000223119021824</v>
+        <v>0.9807749598211968</v>
       </c>
       <c r="O17">
-        <v>1.000061706274237</v>
+        <v>0.9706270345340448</v>
       </c>
       <c r="P17">
-        <v>0.9999597416987327</v>
+        <v>0.9866425839903933</v>
       </c>
       <c r="Q17">
-        <v>0.9999597416987328</v>
+        <v>0.9866425839903933</v>
       </c>
       <c r="R17">
-        <v>0.999828053037187</v>
+        <v>0.9895763960749915</v>
       </c>
       <c r="S17">
-        <v>0.999828053037187</v>
+        <v>0.9895763960749915</v>
       </c>
       <c r="T17">
-        <v>1.000153115788475</v>
+        <v>1.003894459423079</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.001378062745479</v>
+        <v>1.038557474088583</v>
       </c>
       <c r="D18">
-        <v>0.9974689500119778</v>
+        <v>1.005849328279889</v>
       </c>
       <c r="E18">
-        <v>1.000185996377965</v>
+        <v>0.9723125580470877</v>
       </c>
       <c r="F18">
-        <v>1.001378062745479</v>
+        <v>1.013419662530367</v>
       </c>
       <c r="G18">
-        <v>1.000001496582623</v>
+        <v>1.003074889085875</v>
       </c>
       <c r="H18">
-        <v>0.9990011226003522</v>
+        <v>0.939212614959074</v>
       </c>
       <c r="I18">
-        <v>1.000533533698912</v>
+        <v>1.038557474088583</v>
       </c>
       <c r="J18">
-        <v>0.9974689500119778</v>
+        <v>0.939212614959074</v>
       </c>
       <c r="K18">
-        <v>1.001378062745479</v>
+        <v>1.038557474088583</v>
       </c>
       <c r="L18">
-        <v>1.000185996377965</v>
+        <v>1.003074889085875</v>
       </c>
       <c r="M18">
-        <v>0.9988274731949716</v>
+        <v>0.9711437520224745</v>
       </c>
       <c r="N18">
-        <v>0.9988274731949716</v>
+        <v>0.9711437520224745</v>
       </c>
       <c r="O18">
-        <v>0.9988853563300985</v>
+        <v>0.9715333540306789</v>
       </c>
       <c r="P18">
-        <v>0.9996776697118074</v>
+        <v>0.9936149927111773</v>
       </c>
       <c r="Q18">
-        <v>0.9996776697118074</v>
+        <v>0.9936149927111773</v>
       </c>
       <c r="R18">
-        <v>1.000102767970225</v>
+        <v>1.004850613055529</v>
       </c>
       <c r="S18">
-        <v>1.000102767970225</v>
+        <v>1.004850613055529</v>
       </c>
       <c r="T18">
-        <v>0.9997615270028849</v>
+        <v>0.9954044211651459</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.051758535502132</v>
+      </c>
+      <c r="D19">
+        <v>1.000166443789177</v>
+      </c>
+      <c r="E19">
+        <v>0.9677913085298574</v>
+      </c>
+      <c r="F19">
+        <v>1.015655716421605</v>
+      </c>
+      <c r="G19">
+        <v>1.000798600671228</v>
+      </c>
+      <c r="H19">
+        <v>0.9278780897883793</v>
+      </c>
+      <c r="I19">
+        <v>1.051758535502132</v>
+      </c>
+      <c r="J19">
+        <v>0.9278780897883793</v>
+      </c>
+      <c r="K19">
+        <v>1.051758535502132</v>
+      </c>
+      <c r="L19">
+        <v>1.000798600671228</v>
+      </c>
+      <c r="M19">
+        <v>0.9643383452298038</v>
+      </c>
+      <c r="N19">
+        <v>0.9643383452298038</v>
+      </c>
+      <c r="O19">
+        <v>0.9654893329964883</v>
+      </c>
+      <c r="P19">
+        <v>0.9934784086539133</v>
+      </c>
+      <c r="Q19">
+        <v>0.9934784086539133</v>
+      </c>
+      <c r="R19">
+        <v>1.008048440365968</v>
+      </c>
+      <c r="S19">
+        <v>1.008048440365968</v>
+      </c>
+      <c r="T19">
+        <v>0.9940081157837298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000806786820845</v>
+      </c>
+      <c r="D20">
+        <v>0.9990578801361627</v>
+      </c>
+      <c r="E20">
+        <v>0.9999642478601126</v>
+      </c>
+      <c r="F20">
+        <v>1.000074894068761</v>
+      </c>
+      <c r="G20">
+        <v>0.9997737076151755</v>
+      </c>
+      <c r="H20">
+        <v>0.9993718849098128</v>
+      </c>
+      <c r="I20">
+        <v>1.000806786820845</v>
+      </c>
+      <c r="J20">
+        <v>0.9993718849098128</v>
+      </c>
+      <c r="K20">
+        <v>1.000806786820845</v>
+      </c>
+      <c r="L20">
+        <v>0.9997737076151755</v>
+      </c>
+      <c r="M20">
+        <v>0.9995727962624941</v>
+      </c>
+      <c r="N20">
+        <v>0.9995727962624941</v>
+      </c>
+      <c r="O20">
+        <v>0.999703280128367</v>
+      </c>
+      <c r="P20">
+        <v>0.9999841264486111</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999841264486112</v>
+      </c>
+      <c r="R20">
+        <v>1.00018979154167</v>
+      </c>
+      <c r="S20">
+        <v>1.00018979154167</v>
+      </c>
+      <c r="T20">
+        <v>0.9998415669018117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9994329870525496</v>
+      </c>
+      <c r="D21">
+        <v>1.001250920401314</v>
+      </c>
+      <c r="E21">
+        <v>0.9997388807790616</v>
+      </c>
+      <c r="F21">
+        <v>1.000049668454275</v>
+      </c>
+      <c r="G21">
+        <v>1.00030345129486</v>
+      </c>
+      <c r="H21">
+        <v>1.000142786748788</v>
+      </c>
+      <c r="I21">
+        <v>0.9994329870525496</v>
+      </c>
+      <c r="J21">
+        <v>1.000142786748788</v>
+      </c>
+      <c r="K21">
+        <v>0.9994329870525496</v>
+      </c>
+      <c r="L21">
+        <v>1.00030345129486</v>
+      </c>
+      <c r="M21">
+        <v>1.000223119021824</v>
+      </c>
+      <c r="N21">
+        <v>1.000223119021824</v>
+      </c>
+      <c r="O21">
+        <v>1.000061706274237</v>
+      </c>
+      <c r="P21">
+        <v>0.9999597416987326</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999597416987326</v>
+      </c>
+      <c r="R21">
+        <v>0.9998280530371868</v>
+      </c>
+      <c r="S21">
+        <v>0.9998280530371868</v>
+      </c>
+      <c r="T21">
+        <v>1.000153115788475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.001378062745479</v>
+      </c>
+      <c r="D22">
+        <v>1.000001496582624</v>
+      </c>
+      <c r="E22">
+        <v>0.9990011226003522</v>
+      </c>
+      <c r="F22">
+        <v>1.000533533698912</v>
+      </c>
+      <c r="G22">
+        <v>1.000185996377965</v>
+      </c>
+      <c r="H22">
+        <v>0.997468950011978</v>
+      </c>
+      <c r="I22">
+        <v>1.001378062745479</v>
+      </c>
+      <c r="J22">
+        <v>0.997468950011978</v>
+      </c>
+      <c r="K22">
+        <v>1.001378062745479</v>
+      </c>
+      <c r="L22">
+        <v>1.000185996377965</v>
+      </c>
+      <c r="M22">
+        <v>0.9988274731949717</v>
+      </c>
+      <c r="N22">
+        <v>0.9988274731949717</v>
+      </c>
+      <c r="O22">
+        <v>0.9988853563300985</v>
+      </c>
+      <c r="P22">
+        <v>0.9996776697118076</v>
+      </c>
+      <c r="Q22">
+        <v>0.9996776697118076</v>
+      </c>
+      <c r="R22">
+        <v>1.000102767970226</v>
+      </c>
+      <c r="S22">
+        <v>1.000102767970226</v>
+      </c>
+      <c r="T22">
+        <v>0.9997615270028853</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.004821355080959</v>
       </c>
-      <c r="D19">
+      <c r="D23">
+        <v>0.9977981512755734</v>
+      </c>
+      <c r="E23">
+        <v>0.997630364470717</v>
+      </c>
+      <c r="F23">
+        <v>1.001441985785564</v>
+      </c>
+      <c r="G23">
+        <v>1.000051312972357</v>
+      </c>
+      <c r="H23">
         <v>0.9924602117628354</v>
       </c>
-      <c r="E19">
+      <c r="I23">
+        <v>1.004821355080959</v>
+      </c>
+      <c r="J23">
+        <v>0.9924602117628354</v>
+      </c>
+      <c r="K23">
+        <v>1.004821355080959</v>
+      </c>
+      <c r="L23">
         <v>1.000051312972357</v>
       </c>
-      <c r="F19">
-        <v>1.004821355080959</v>
-      </c>
-      <c r="G19">
-        <v>0.9977981512755734</v>
-      </c>
-      <c r="H19">
-        <v>0.9976303644707172</v>
-      </c>
-      <c r="I19">
-        <v>1.001441985785564</v>
-      </c>
-      <c r="J19">
-        <v>0.9924602117628354</v>
-      </c>
-      <c r="K19">
-        <v>1.004821355080959</v>
-      </c>
-      <c r="L19">
-        <v>1.000051312972357</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9962557623675961</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9962557623675961</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9967139630686365</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.999110959938717</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.999110959938717</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.000538558724278</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.000538558724278</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9990338968913343</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/GossF-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW25.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9984801509501645</v>
+        <v>1.044775427384725</v>
       </c>
       <c r="D3">
-        <v>1.007479220619864</v>
+        <v>1.011427917658503</v>
       </c>
       <c r="E3">
-        <v>0.9969114903208507</v>
+        <v>0.9654287324423634</v>
       </c>
       <c r="F3">
-        <v>1.00116058231535</v>
+        <v>1.016520302961096</v>
       </c>
       <c r="G3">
-        <v>1.002263644948268</v>
+        <v>1.004892683386165</v>
       </c>
       <c r="H3">
-        <v>0.9967110786392752</v>
+        <v>0.9264285433573491</v>
       </c>
       <c r="I3">
-        <v>0.9984801509501645</v>
+        <v>1.044775427384725</v>
       </c>
       <c r="J3">
-        <v>0.9967110786392752</v>
+        <v>0.9264285433573491</v>
       </c>
       <c r="K3">
-        <v>0.9984801509501645</v>
+        <v>1.044775427384725</v>
       </c>
       <c r="L3">
-        <v>1.002263644948268</v>
+        <v>1.004892683386165</v>
       </c>
       <c r="M3">
-        <v>0.9994873617937714</v>
+        <v>0.9656606133717571</v>
       </c>
       <c r="N3">
-        <v>0.9994873617937714</v>
+        <v>0.9656606133717571</v>
       </c>
       <c r="O3">
-        <v>0.9986287379694646</v>
+        <v>0.9655833197286259</v>
       </c>
       <c r="P3">
-        <v>0.9991516248459025</v>
+        <v>0.9920322180427462</v>
       </c>
       <c r="Q3">
-        <v>0.9991516248459025</v>
+        <v>0.9920322180427462</v>
       </c>
       <c r="R3">
-        <v>0.998983756371968</v>
+        <v>1.005218020378241</v>
       </c>
       <c r="S3">
-        <v>0.998983756371968</v>
+        <v>1.005218020378241</v>
       </c>
       <c r="T3">
-        <v>1.000501027965629</v>
+        <v>0.9949122678650335</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9969679277897998</v>
+        <v>1.042071996389305</v>
       </c>
       <c r="D4">
-        <v>1.014508918581146</v>
+        <v>1.00895744053299</v>
       </c>
       <c r="E4">
-        <v>0.9940434323072934</v>
+        <v>0.9683816136051054</v>
       </c>
       <c r="F4">
-        <v>1.00224044240491</v>
+        <v>1.01521771861722</v>
       </c>
       <c r="G4">
-        <v>1.00441020513607</v>
+        <v>1.004166578889304</v>
       </c>
       <c r="H4">
-        <v>0.9936588932057756</v>
+        <v>0.9317018894809918</v>
       </c>
       <c r="I4">
-        <v>0.9969679277897998</v>
+        <v>1.042071996389305</v>
       </c>
       <c r="J4">
-        <v>0.9936588932057756</v>
+        <v>0.9317018894809918</v>
       </c>
       <c r="K4">
-        <v>0.9969679277897998</v>
+        <v>1.042071996389305</v>
       </c>
       <c r="L4">
-        <v>1.00441020513607</v>
+        <v>1.004166578889304</v>
       </c>
       <c r="M4">
-        <v>0.9990345491709227</v>
+        <v>0.9679342341851478</v>
       </c>
       <c r="N4">
-        <v>0.9990345491709227</v>
+        <v>0.9679342341851478</v>
       </c>
       <c r="O4">
-        <v>0.9973708435497129</v>
+        <v>0.968083360658467</v>
       </c>
       <c r="P4">
-        <v>0.9983456753772151</v>
+        <v>0.9926468215865336</v>
       </c>
       <c r="Q4">
-        <v>0.9983456753772151</v>
+        <v>0.9926468215865336</v>
       </c>
       <c r="R4">
-        <v>0.9980012384803613</v>
+        <v>1.005003115287227</v>
       </c>
       <c r="S4">
-        <v>0.9980012384803613</v>
+        <v>1.005003115287227</v>
       </c>
       <c r="T4">
-        <v>1.000971636570833</v>
+        <v>0.9950828729191527</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9949831284655811</v>
+        <v>1.049889349892181</v>
       </c>
       <c r="D5">
-        <v>1.027003239377252</v>
+        <v>1.015434509892184</v>
       </c>
       <c r="E5">
-        <v>0.9885520177639171</v>
+        <v>0.9602389297304588</v>
       </c>
       <c r="F5">
-        <v>1.004335721027362</v>
+        <v>1.018808515633425</v>
       </c>
       <c r="G5">
-        <v>1.008184537478926</v>
+        <v>1.006018057574124</v>
       </c>
       <c r="H5">
-        <v>0.9874610085842321</v>
+        <v>0.9171158701617231</v>
       </c>
       <c r="I5">
-        <v>0.9949831284655811</v>
+        <v>1.049889349892181</v>
       </c>
       <c r="J5">
-        <v>0.9874610085842321</v>
+        <v>0.9171158701617231</v>
       </c>
       <c r="K5">
-        <v>0.9949831284655811</v>
+        <v>1.049889349892181</v>
       </c>
       <c r="L5">
-        <v>1.008184537478926</v>
+        <v>1.006018057574124</v>
       </c>
       <c r="M5">
-        <v>0.997822773031579</v>
+        <v>0.9615669638679238</v>
       </c>
       <c r="N5">
-        <v>0.997822773031579</v>
+        <v>0.9615669638679238</v>
       </c>
       <c r="O5">
-        <v>0.9947325212756916</v>
+        <v>0.9611242858221022</v>
       </c>
       <c r="P5">
-        <v>0.9968762248429131</v>
+        <v>0.9910077592093428</v>
       </c>
       <c r="Q5">
-        <v>0.9968762248429131</v>
+        <v>0.9910077592093428</v>
       </c>
       <c r="R5">
-        <v>0.9964029507485801</v>
+        <v>1.005728156880052</v>
       </c>
       <c r="S5">
-        <v>0.9964029507485801</v>
+        <v>1.005728156880052</v>
       </c>
       <c r="T5">
-        <v>1.001753275449545</v>
+        <v>0.9945842054806828</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9930056534270264</v>
+        <v>1.054640192727273</v>
       </c>
       <c r="D6">
-        <v>1.039218443932764</v>
+        <v>1.018360730568183</v>
       </c>
       <c r="E6">
-        <v>0.9832015947545938</v>
+        <v>0.955890365340909</v>
       </c>
       <c r="F6">
-        <v>1.006379915525419</v>
+        <v>1.020724371477272</v>
       </c>
       <c r="G6">
-        <v>1.011883745235539</v>
+        <v>1.006767256363637</v>
       </c>
       <c r="H6">
-        <v>0.9813808582936223</v>
+        <v>0.9092554610795454</v>
       </c>
       <c r="I6">
-        <v>0.9930056534270264</v>
+        <v>1.054640192727273</v>
       </c>
       <c r="J6">
-        <v>0.9813808582936223</v>
+        <v>0.9092554610795454</v>
       </c>
       <c r="K6">
-        <v>0.9930056534270264</v>
+        <v>1.054640192727273</v>
       </c>
       <c r="L6">
-        <v>1.011883745235539</v>
+        <v>1.006767256363637</v>
       </c>
       <c r="M6">
-        <v>0.9966323017645805</v>
+        <v>0.9580113587215912</v>
       </c>
       <c r="N6">
-        <v>0.9966323017645805</v>
+        <v>0.9580113587215912</v>
       </c>
       <c r="O6">
-        <v>0.9921553994279183</v>
+        <v>0.9573043609280304</v>
       </c>
       <c r="P6">
-        <v>0.9954234189853958</v>
+        <v>0.9902209700568186</v>
       </c>
       <c r="Q6">
-        <v>0.9954234189853958</v>
+        <v>0.9902209700568186</v>
       </c>
       <c r="R6">
-        <v>0.9948189775958034</v>
+        <v>1.006325775724432</v>
       </c>
       <c r="S6">
-        <v>0.9948189775958034</v>
+        <v>1.006325775724432</v>
       </c>
       <c r="T6">
-        <v>1.002511701861494</v>
+        <v>0.9942730629261366</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000320980767071</v>
+        <v>0.9341552575542217</v>
       </c>
       <c r="D7">
-        <v>0.9998497590001297</v>
+        <v>1.187926760196963</v>
       </c>
       <c r="E7">
-        <v>0.9998934257610904</v>
+        <v>0.9392953673073519</v>
       </c>
       <c r="F7">
-        <v>1.000054333257085</v>
+        <v>1.021033333673039</v>
       </c>
       <c r="G7">
-        <v>0.9999446055374834</v>
+        <v>1.056785634914537</v>
       </c>
       <c r="H7">
-        <v>0.9997197167459836</v>
+        <v>0.9546736325283988</v>
       </c>
       <c r="I7">
-        <v>1.000320980767071</v>
+        <v>0.9341552575542217</v>
       </c>
       <c r="J7">
-        <v>0.9997197167459836</v>
+        <v>0.9546736325283988</v>
       </c>
       <c r="K7">
-        <v>1.000320980767071</v>
+        <v>0.9341552575542217</v>
       </c>
       <c r="L7">
-        <v>0.9999446055374834</v>
+        <v>1.056785634914537</v>
       </c>
       <c r="M7">
-        <v>0.9998321611417336</v>
+        <v>1.005729633721468</v>
       </c>
       <c r="N7">
-        <v>0.9998321611417336</v>
+        <v>1.005729633721468</v>
       </c>
       <c r="O7">
-        <v>0.9998525826815192</v>
+        <v>0.9835848782500957</v>
       </c>
       <c r="P7">
-        <v>0.9999951010168461</v>
+        <v>0.9818715083323856</v>
       </c>
       <c r="Q7">
-        <v>0.9999951010168461</v>
+        <v>0.9818715083323856</v>
       </c>
       <c r="R7">
-        <v>1.000076570954402</v>
+        <v>0.9699424456378446</v>
       </c>
       <c r="S7">
-        <v>1.000076570954402</v>
+        <v>0.9699424456378446</v>
       </c>
       <c r="T7">
-        <v>0.9999638035114738</v>
+        <v>1.015644997695752</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000646783850277</v>
+        <v>0.9348891019861739</v>
       </c>
       <c r="D8">
-        <v>0.9994621346108097</v>
+        <v>1.185041148226768</v>
       </c>
       <c r="E8">
-        <v>0.999934110443117</v>
+        <v>0.940553933913443</v>
       </c>
       <c r="F8">
-        <v>1.000039765542676</v>
+        <v>1.020493867917573</v>
       </c>
       <c r="G8">
-        <v>0.999789967839379</v>
+        <v>1.055722173225175</v>
       </c>
       <c r="H8">
-        <v>0.9997110926159413</v>
+        <v>0.9565206442981622</v>
       </c>
       <c r="I8">
-        <v>1.000646783850277</v>
+        <v>0.9348891019861739</v>
       </c>
       <c r="J8">
-        <v>0.9997110926159413</v>
+        <v>0.9565206442981622</v>
       </c>
       <c r="K8">
-        <v>1.000646783850277</v>
+        <v>0.9348891019861739</v>
       </c>
       <c r="L8">
-        <v>0.999789967839379</v>
+        <v>1.055722173225175</v>
       </c>
       <c r="M8">
-        <v>0.9997505302276601</v>
+        <v>1.006121408761668</v>
       </c>
       <c r="N8">
-        <v>0.9997505302276601</v>
+        <v>1.006121408761668</v>
       </c>
       <c r="O8">
-        <v>0.9998117236328125</v>
+        <v>0.9842655838122599</v>
       </c>
       <c r="P8">
-        <v>1.000049281435199</v>
+        <v>0.9823773065031701</v>
       </c>
       <c r="Q8">
-        <v>1.000049281435199</v>
+        <v>0.9823773065031703</v>
       </c>
       <c r="R8">
-        <v>1.000198657038968</v>
+        <v>0.9705052553739212</v>
       </c>
       <c r="S8">
-        <v>1.000198657038968</v>
+        <v>0.9705052553739212</v>
       </c>
       <c r="T8">
-        <v>0.9999306424836999</v>
+        <v>1.015536811594549</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00055188611362</v>
+        <v>0.9361880678950303</v>
       </c>
       <c r="D9">
-        <v>0.9990080388634269</v>
+        <v>1.18312579935561</v>
       </c>
       <c r="E9">
-        <v>1.000283227568951</v>
+        <v>0.9408431726353179</v>
       </c>
       <c r="F9">
-        <v>0.9998736861111206</v>
+        <v>1.020417536923216</v>
       </c>
       <c r="G9">
-        <v>0.9995945964503098</v>
+        <v>1.055079876466352</v>
       </c>
       <c r="H9">
-        <v>1.000396982951842</v>
+        <v>0.9564019431908124</v>
       </c>
       <c r="I9">
-        <v>1.00055188611362</v>
+        <v>0.9361880678950303</v>
       </c>
       <c r="J9">
-        <v>1.000396982951842</v>
+        <v>0.9564019431908124</v>
       </c>
       <c r="K9">
-        <v>1.00055188611362</v>
+        <v>0.9361880678950303</v>
       </c>
       <c r="L9">
-        <v>0.9995945964503098</v>
+        <v>1.055079876466352</v>
       </c>
       <c r="M9">
-        <v>0.9999957897010758</v>
+        <v>1.005740909828582</v>
       </c>
       <c r="N9">
-        <v>0.9999957897010758</v>
+        <v>1.005740909828582</v>
       </c>
       <c r="O9">
-        <v>1.000091602323701</v>
+        <v>0.9841083307641606</v>
       </c>
       <c r="P9">
-        <v>1.000181155171924</v>
+        <v>0.9825566291840649</v>
       </c>
       <c r="Q9">
-        <v>1.000181155171924</v>
+        <v>0.9825566291840649</v>
       </c>
       <c r="R9">
-        <v>1.000273837907348</v>
+        <v>0.9709644888618063</v>
       </c>
       <c r="S9">
-        <v>1.000273837907348</v>
+        <v>0.9709644888618063</v>
       </c>
       <c r="T9">
-        <v>0.9999514030098785</v>
+        <v>1.01534273274439</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.001568509281302</v>
+        <v>0.9347448824294041</v>
       </c>
       <c r="D10">
-        <v>0.9980177367932583</v>
+        <v>1.171684913154148</v>
       </c>
       <c r="E10">
-        <v>1.000268099548613</v>
+        <v>0.9486701002344674</v>
       </c>
       <c r="F10">
-        <v>0.9998958934142397</v>
+        <v>1.016849224192971</v>
       </c>
       <c r="G10">
-        <v>0.9992075800409874</v>
+        <v>1.050637025862446</v>
       </c>
       <c r="H10">
-        <v>1.000099388044863</v>
+        <v>0.9704364911379293</v>
       </c>
       <c r="I10">
-        <v>1.001568509281302</v>
+        <v>0.9347448824294041</v>
       </c>
       <c r="J10">
-        <v>1.000099388044863</v>
+        <v>0.9704364911379293</v>
       </c>
       <c r="K10">
-        <v>1.001568509281302</v>
+        <v>0.9347448824294041</v>
       </c>
       <c r="L10">
-        <v>0.9992075800409874</v>
+        <v>1.050637025862446</v>
       </c>
       <c r="M10">
-        <v>0.999653484042925</v>
+        <v>1.010536758500188</v>
       </c>
       <c r="N10">
-        <v>0.999653484042925</v>
+        <v>1.010536758500188</v>
       </c>
       <c r="O10">
-        <v>0.9998583558781545</v>
+        <v>0.9899145390782809</v>
       </c>
       <c r="P10">
-        <v>1.000291825789051</v>
+        <v>0.9852727998099264</v>
       </c>
       <c r="Q10">
-        <v>1.000291825789051</v>
+        <v>0.9852727998099264</v>
       </c>
       <c r="R10">
-        <v>1.000610996662113</v>
+        <v>0.9726408204647958</v>
       </c>
       <c r="S10">
-        <v>1.000610996662113</v>
+        <v>0.9726408204647958</v>
       </c>
       <c r="T10">
-        <v>0.9998428678538772</v>
+        <v>1.015503772835228</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.001780038078881</v>
+        <v>0.9980844768910373</v>
       </c>
       <c r="D11">
-        <v>0.9962192039899348</v>
+        <v>1.008824318959857</v>
       </c>
       <c r="E11">
-        <v>1.001296856437085</v>
+        <v>0.9964160584912506</v>
       </c>
       <c r="F11">
-        <v>0.9994059346680152</v>
+        <v>1.00134601170121</v>
       </c>
       <c r="G11">
-        <v>0.9984289376874705</v>
+        <v>1.002688211395009</v>
       </c>
       <c r="H11">
-        <v>1.002057596536896</v>
+        <v>0.9962118585906424</v>
       </c>
       <c r="I11">
-        <v>1.001780038078881</v>
+        <v>0.9980844768910373</v>
       </c>
       <c r="J11">
-        <v>1.002057596536896</v>
+        <v>0.9962118585906424</v>
       </c>
       <c r="K11">
-        <v>1.001780038078881</v>
+        <v>0.9980844768910373</v>
       </c>
       <c r="L11">
-        <v>0.9984289376874705</v>
+        <v>1.002688211395009</v>
       </c>
       <c r="M11">
-        <v>1.000243267112183</v>
+        <v>0.9994500349928259</v>
       </c>
       <c r="N11">
-        <v>1.000243267112183</v>
+        <v>0.9994500349928259</v>
       </c>
       <c r="O11">
-        <v>1.000594463553817</v>
+        <v>0.9984387094923007</v>
       </c>
       <c r="P11">
-        <v>1.000755524101083</v>
+        <v>0.9989948489588963</v>
       </c>
       <c r="Q11">
-        <v>1.000755524101083</v>
+        <v>0.9989948489588963</v>
       </c>
       <c r="R11">
-        <v>1.001011652595532</v>
+        <v>0.9987672559419316</v>
       </c>
       <c r="S11">
-        <v>1.001011652595532</v>
+        <v>0.9987672559419316</v>
       </c>
       <c r="T11">
-        <v>0.9998647612330473</v>
+        <v>1.000595156004835</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9877932451931216</v>
+        <v>0.9987631723642146</v>
       </c>
       <c r="D12">
-        <v>1.012353087906899</v>
+        <v>1.004164443602485</v>
       </c>
       <c r="E12">
-        <v>0.9958367111768504</v>
+        <v>0.9985352147704331</v>
       </c>
       <c r="F12">
-        <v>1.003277000515178</v>
+        <v>1.000517186573816</v>
       </c>
       <c r="G12">
-        <v>1.009648920589846</v>
+        <v>1.001239007186606</v>
       </c>
       <c r="H12">
-        <v>0.9842976226294291</v>
+        <v>0.9987806549414697</v>
       </c>
       <c r="I12">
-        <v>0.9877932451931216</v>
+        <v>0.9987631723642146</v>
       </c>
       <c r="J12">
-        <v>0.9842976226294291</v>
+        <v>0.9987806549414697</v>
       </c>
       <c r="K12">
-        <v>0.9877932451931216</v>
+        <v>0.9987631723642146</v>
       </c>
       <c r="L12">
-        <v>1.009648920589846</v>
+        <v>1.001239007186606</v>
       </c>
       <c r="M12">
-        <v>0.9969732716096378</v>
+        <v>1.000009831064038</v>
       </c>
       <c r="N12">
-        <v>0.9969732716096378</v>
+        <v>1.000009831064038</v>
       </c>
       <c r="O12">
-        <v>0.996594418132042</v>
+        <v>0.9995182922995028</v>
       </c>
       <c r="P12">
-        <v>0.9939132628041324</v>
+        <v>0.9995942781640967</v>
       </c>
       <c r="Q12">
-        <v>0.9939132628041324</v>
+        <v>0.9995942781640966</v>
       </c>
       <c r="R12">
-        <v>0.9923832584013798</v>
+        <v>0.9993865017141261</v>
       </c>
       <c r="S12">
-        <v>0.9923832584013798</v>
+        <v>0.9993865017141261</v>
       </c>
       <c r="T12">
-        <v>0.9988677646685543</v>
+        <v>1.000333279906504</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.012417350723668</v>
+        <v>0.9941930585836156</v>
       </c>
       <c r="D13">
-        <v>1.001769513228698</v>
+        <v>1.01118269948675</v>
       </c>
       <c r="E13">
-        <v>0.9972891075569355</v>
+        <v>0.9977880645498338</v>
       </c>
       <c r="F13">
-        <v>0.9991714166296326</v>
+        <v>1.000484969463814</v>
       </c>
       <c r="G13">
-        <v>0.9937204182804564</v>
+        <v>1.003074241479184</v>
       </c>
       <c r="H13">
-        <v>1.008235246009658</v>
+        <v>1.001066628777094</v>
       </c>
       <c r="I13">
-        <v>1.012417350723668</v>
+        <v>0.9941930585836156</v>
       </c>
       <c r="J13">
-        <v>1.008235246009658</v>
+        <v>1.001066628777094</v>
       </c>
       <c r="K13">
-        <v>1.012417350723668</v>
+        <v>0.9941930585836156</v>
       </c>
       <c r="L13">
-        <v>0.9937204182804564</v>
+        <v>1.003074241479184</v>
       </c>
       <c r="M13">
-        <v>1.000977832145057</v>
+        <v>1.002070435128139</v>
       </c>
       <c r="N13">
-        <v>1.000977832145057</v>
+        <v>1.002070435128139</v>
       </c>
       <c r="O13">
-        <v>0.9997482572823498</v>
+        <v>1.000642978268704</v>
       </c>
       <c r="P13">
-        <v>1.004791005004594</v>
+        <v>0.9994446429466309</v>
       </c>
       <c r="Q13">
-        <v>1.004791005004594</v>
+        <v>0.999444642946631</v>
       </c>
       <c r="R13">
-        <v>1.006697591434363</v>
+        <v>0.9981317468558772</v>
       </c>
       <c r="S13">
-        <v>1.006697591434363</v>
+        <v>0.9981317468558772</v>
       </c>
       <c r="T13">
-        <v>1.002100508738175</v>
+        <v>1.001298277056715</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7094658101932654</v>
+        <v>0.9961852717324553</v>
       </c>
       <c r="D14">
-        <v>0.4456680743781916</v>
+        <v>1.020264397329754</v>
       </c>
       <c r="E14">
-        <v>1.517071100800389</v>
+        <v>0.9914293955573894</v>
       </c>
       <c r="F14">
-        <v>0.759973291157334</v>
+        <v>1.003247773757624</v>
       </c>
       <c r="G14">
-        <v>0.7807582616836947</v>
+        <v>1.00615416796085</v>
       </c>
       <c r="H14">
-        <v>1.987291489559742</v>
+        <v>0.9906059929638367</v>
       </c>
       <c r="I14">
-        <v>0.7094658101932654</v>
+        <v>0.9961852717324553</v>
       </c>
       <c r="J14">
-        <v>1.987291489559742</v>
+        <v>0.9906059929638367</v>
       </c>
       <c r="K14">
-        <v>0.7094658101932654</v>
+        <v>0.9961852717324553</v>
       </c>
       <c r="L14">
-        <v>0.7807582616836947</v>
+        <v>1.00615416796085</v>
       </c>
       <c r="M14">
-        <v>1.384024875621718</v>
+        <v>0.9983800804623435</v>
       </c>
       <c r="N14">
-        <v>1.384024875621718</v>
+        <v>0.9983800804623435</v>
       </c>
       <c r="O14">
-        <v>1.428373617347942</v>
+        <v>0.9960631854940255</v>
       </c>
       <c r="P14">
-        <v>1.159171853812234</v>
+        <v>0.9976484775523807</v>
       </c>
       <c r="Q14">
-        <v>1.159171853812234</v>
+        <v>0.9976484775523807</v>
       </c>
       <c r="R14">
-        <v>1.046745342907492</v>
+        <v>0.9972826760973994</v>
       </c>
       <c r="S14">
-        <v>1.046745342907492</v>
+        <v>0.9972826760973994</v>
       </c>
       <c r="T14">
-        <v>1.033371337962103</v>
+        <v>1.001314499883652</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.956837608256232</v>
+        <v>0.9984801509501645</v>
       </c>
       <c r="D15">
-        <v>0.8001049906340567</v>
+        <v>1.007479220619864</v>
       </c>
       <c r="E15">
-        <v>1.137938637739547</v>
+        <v>0.9969114903208507</v>
       </c>
       <c r="F15">
-        <v>0.94084302729389</v>
+        <v>1.00116058231535</v>
       </c>
       <c r="G15">
-        <v>0.9342608909187008</v>
+        <v>1.002263644948268</v>
       </c>
       <c r="H15">
-        <v>1.220094472832538</v>
+        <v>0.9967110786392752</v>
       </c>
       <c r="I15">
-        <v>0.956837608256232</v>
+        <v>0.9984801509501645</v>
       </c>
       <c r="J15">
-        <v>1.220094472832538</v>
+        <v>0.9967110786392752</v>
       </c>
       <c r="K15">
-        <v>0.956837608256232</v>
+        <v>0.9984801509501645</v>
       </c>
       <c r="L15">
-        <v>0.9342608909187008</v>
+        <v>1.002263644948268</v>
       </c>
       <c r="M15">
-        <v>1.07717768187562</v>
+        <v>0.9994873617937714</v>
       </c>
       <c r="N15">
-        <v>1.07717768187562</v>
+        <v>0.9994873617937714</v>
       </c>
       <c r="O15">
-        <v>1.097431333830262</v>
+        <v>0.9986287379694646</v>
       </c>
       <c r="P15">
-        <v>1.03706432400249</v>
+        <v>0.9991516248459025</v>
       </c>
       <c r="Q15">
-        <v>1.03706432400249</v>
+        <v>0.9991516248459025</v>
       </c>
       <c r="R15">
-        <v>1.017007645065926</v>
+        <v>0.998983756371968</v>
       </c>
       <c r="S15">
-        <v>1.017007645065926</v>
+        <v>0.998983756371968</v>
       </c>
       <c r="T15">
-        <v>0.9983466046124941</v>
+        <v>1.000501027965629</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9778480483613802</v>
+        <v>0.9969679277897998</v>
       </c>
       <c r="D16">
-        <v>1.136541479230731</v>
+        <v>1.014508918581146</v>
       </c>
       <c r="E16">
-        <v>0.9396545218474333</v>
+        <v>0.9940434323072934</v>
       </c>
       <c r="F16">
-        <v>1.023288839586594</v>
+        <v>1.00224044240491</v>
       </c>
       <c r="G16">
-        <v>1.041988759653279</v>
+        <v>1.00441020513607</v>
       </c>
       <c r="H16">
-        <v>0.9298906180552243</v>
+        <v>0.9936588932057756</v>
       </c>
       <c r="I16">
-        <v>0.9778480483613802</v>
+        <v>0.9969679277897998</v>
       </c>
       <c r="J16">
-        <v>0.9298906180552243</v>
+        <v>0.9936588932057756</v>
       </c>
       <c r="K16">
-        <v>0.9778480483613802</v>
+        <v>0.9969679277897998</v>
       </c>
       <c r="L16">
-        <v>1.041988759653279</v>
+        <v>1.00441020513607</v>
       </c>
       <c r="M16">
-        <v>0.9859396888542518</v>
+        <v>0.9990345491709227</v>
       </c>
       <c r="N16">
-        <v>0.9859396888542518</v>
+        <v>0.9990345491709227</v>
       </c>
       <c r="O16">
-        <v>0.9705112998519789</v>
+        <v>0.9973708435497129</v>
       </c>
       <c r="P16">
-        <v>0.9832424753566279</v>
+        <v>0.9983456753772151</v>
       </c>
       <c r="Q16">
-        <v>0.9832424753566279</v>
+        <v>0.9983456753772151</v>
       </c>
       <c r="R16">
-        <v>0.9818938686078159</v>
+        <v>0.9980012384803613</v>
       </c>
       <c r="S16">
-        <v>0.9818938686078159</v>
+        <v>0.9980012384803613</v>
       </c>
       <c r="T16">
-        <v>1.008202044455774</v>
+        <v>1.000971636570833</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9983778323287862</v>
+        <v>0.9949831284655811</v>
       </c>
       <c r="D17">
-        <v>1.093002971614116</v>
+        <v>1.027003239377252</v>
       </c>
       <c r="E17">
-        <v>0.9503311839597405</v>
+        <v>0.9885520177639171</v>
       </c>
       <c r="F17">
-        <v>1.020104848993438</v>
+        <v>1.004335721027362</v>
       </c>
       <c r="G17">
-        <v>1.029046013161774</v>
+        <v>1.008184537478926</v>
       </c>
       <c r="H17">
-        <v>0.9325039064806194</v>
+        <v>0.9874610085842321</v>
       </c>
       <c r="I17">
-        <v>0.9983778323287862</v>
+        <v>0.9949831284655811</v>
       </c>
       <c r="J17">
-        <v>0.9325039064806194</v>
+        <v>0.9874610085842321</v>
       </c>
       <c r="K17">
-        <v>0.9983778323287862</v>
+        <v>0.9949831284655811</v>
       </c>
       <c r="L17">
-        <v>1.029046013161774</v>
+        <v>1.008184537478926</v>
       </c>
       <c r="M17">
-        <v>0.9807749598211968</v>
+        <v>0.997822773031579</v>
       </c>
       <c r="N17">
-        <v>0.9807749598211968</v>
+        <v>0.997822773031579</v>
       </c>
       <c r="O17">
-        <v>0.9706270345340448</v>
+        <v>0.9947325212756916</v>
       </c>
       <c r="P17">
-        <v>0.9866425839903933</v>
+        <v>0.9968762248429131</v>
       </c>
       <c r="Q17">
-        <v>0.9866425839903933</v>
+        <v>0.9968762248429131</v>
       </c>
       <c r="R17">
-        <v>0.9895763960749915</v>
+        <v>0.9964029507485801</v>
       </c>
       <c r="S17">
-        <v>0.9895763960749915</v>
+        <v>0.9964029507485801</v>
       </c>
       <c r="T17">
-        <v>1.003894459423079</v>
+        <v>1.001753275449545</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.038557474088583</v>
+        <v>0.9930056534270264</v>
       </c>
       <c r="D18">
-        <v>1.005849328279889</v>
+        <v>1.039218443932764</v>
       </c>
       <c r="E18">
-        <v>0.9723125580470877</v>
+        <v>0.9832015947545938</v>
       </c>
       <c r="F18">
-        <v>1.013419662530367</v>
+        <v>1.006379915525419</v>
       </c>
       <c r="G18">
-        <v>1.003074889085875</v>
+        <v>1.011883745235539</v>
       </c>
       <c r="H18">
-        <v>0.939212614959074</v>
+        <v>0.9813808582936223</v>
       </c>
       <c r="I18">
-        <v>1.038557474088583</v>
+        <v>0.9930056534270264</v>
       </c>
       <c r="J18">
-        <v>0.939212614959074</v>
+        <v>0.9813808582936223</v>
       </c>
       <c r="K18">
-        <v>1.038557474088583</v>
+        <v>0.9930056534270264</v>
       </c>
       <c r="L18">
-        <v>1.003074889085875</v>
+        <v>1.011883745235539</v>
       </c>
       <c r="M18">
-        <v>0.9711437520224745</v>
+        <v>0.9966323017645805</v>
       </c>
       <c r="N18">
-        <v>0.9711437520224745</v>
+        <v>0.9966323017645805</v>
       </c>
       <c r="O18">
-        <v>0.9715333540306789</v>
+        <v>0.9921553994279183</v>
       </c>
       <c r="P18">
-        <v>0.9936149927111773</v>
+        <v>0.9954234189853958</v>
       </c>
       <c r="Q18">
-        <v>0.9936149927111773</v>
+        <v>0.9954234189853958</v>
       </c>
       <c r="R18">
-        <v>1.004850613055529</v>
+        <v>0.9948189775958034</v>
       </c>
       <c r="S18">
-        <v>1.004850613055529</v>
+        <v>0.9948189775958034</v>
       </c>
       <c r="T18">
-        <v>0.9954044211651459</v>
+        <v>1.002511701861494</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.051758535502132</v>
+        <v>1.000320980767071</v>
       </c>
       <c r="D19">
-        <v>1.000166443789177</v>
+        <v>0.9998497590001297</v>
       </c>
       <c r="E19">
-        <v>0.9677913085298574</v>
+        <v>0.9998934257610904</v>
       </c>
       <c r="F19">
-        <v>1.015655716421605</v>
+        <v>1.000054333257085</v>
       </c>
       <c r="G19">
-        <v>1.000798600671228</v>
+        <v>0.9999446055374834</v>
       </c>
       <c r="H19">
-        <v>0.9278780897883793</v>
+        <v>0.9997197167459836</v>
       </c>
       <c r="I19">
-        <v>1.051758535502132</v>
+        <v>1.000320980767071</v>
       </c>
       <c r="J19">
-        <v>0.9278780897883793</v>
+        <v>0.9997197167459836</v>
       </c>
       <c r="K19">
-        <v>1.051758535502132</v>
+        <v>1.000320980767071</v>
       </c>
       <c r="L19">
-        <v>1.000798600671228</v>
+        <v>0.9999446055374834</v>
       </c>
       <c r="M19">
-        <v>0.9643383452298038</v>
+        <v>0.9998321611417336</v>
       </c>
       <c r="N19">
-        <v>0.9643383452298038</v>
+        <v>0.9998321611417336</v>
       </c>
       <c r="O19">
-        <v>0.9654893329964883</v>
+        <v>0.9998525826815192</v>
       </c>
       <c r="P19">
-        <v>0.9934784086539133</v>
+        <v>0.9999951010168461</v>
       </c>
       <c r="Q19">
-        <v>0.9934784086539133</v>
+        <v>0.9999951010168461</v>
       </c>
       <c r="R19">
-        <v>1.008048440365968</v>
+        <v>1.000076570954402</v>
       </c>
       <c r="S19">
-        <v>1.008048440365968</v>
+        <v>1.000076570954402</v>
       </c>
       <c r="T19">
-        <v>0.9940081157837298</v>
+        <v>0.9999638035114738</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000806786820845</v>
+        <v>1.000646783850277</v>
       </c>
       <c r="D20">
-        <v>0.9990578801361627</v>
+        <v>0.9994621346108097</v>
       </c>
       <c r="E20">
-        <v>0.9999642478601126</v>
+        <v>0.999934110443117</v>
       </c>
       <c r="F20">
-        <v>1.000074894068761</v>
+        <v>1.000039765542676</v>
       </c>
       <c r="G20">
-        <v>0.9997737076151755</v>
+        <v>0.999789967839379</v>
       </c>
       <c r="H20">
-        <v>0.9993718849098128</v>
+        <v>0.9997110926159413</v>
       </c>
       <c r="I20">
-        <v>1.000806786820845</v>
+        <v>1.000646783850277</v>
       </c>
       <c r="J20">
-        <v>0.9993718849098128</v>
+        <v>0.9997110926159413</v>
       </c>
       <c r="K20">
-        <v>1.000806786820845</v>
+        <v>1.000646783850277</v>
       </c>
       <c r="L20">
-        <v>0.9997737076151755</v>
+        <v>0.999789967839379</v>
       </c>
       <c r="M20">
-        <v>0.9995727962624941</v>
+        <v>0.9997505302276601</v>
       </c>
       <c r="N20">
-        <v>0.9995727962624941</v>
+        <v>0.9997505302276601</v>
       </c>
       <c r="O20">
-        <v>0.999703280128367</v>
+        <v>0.9998117236328125</v>
       </c>
       <c r="P20">
-        <v>0.9999841264486111</v>
+        <v>1.000049281435199</v>
       </c>
       <c r="Q20">
-        <v>0.9999841264486112</v>
+        <v>1.000049281435199</v>
       </c>
       <c r="R20">
-        <v>1.00018979154167</v>
+        <v>1.000198657038968</v>
       </c>
       <c r="S20">
-        <v>1.00018979154167</v>
+        <v>1.000198657038968</v>
       </c>
       <c r="T20">
-        <v>0.9998415669018117</v>
+        <v>0.9999306424836999</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9994329870525496</v>
+        <v>1.00055188611362</v>
       </c>
       <c r="D21">
-        <v>1.001250920401314</v>
+        <v>0.9990080388634269</v>
       </c>
       <c r="E21">
-        <v>0.9997388807790616</v>
+        <v>1.000283227568951</v>
       </c>
       <c r="F21">
-        <v>1.000049668454275</v>
+        <v>0.9998736861111206</v>
       </c>
       <c r="G21">
-        <v>1.00030345129486</v>
+        <v>0.9995945964503098</v>
       </c>
       <c r="H21">
-        <v>1.000142786748788</v>
+        <v>1.000396982951842</v>
       </c>
       <c r="I21">
-        <v>0.9994329870525496</v>
+        <v>1.00055188611362</v>
       </c>
       <c r="J21">
-        <v>1.000142786748788</v>
+        <v>1.000396982951842</v>
       </c>
       <c r="K21">
-        <v>0.9994329870525496</v>
+        <v>1.00055188611362</v>
       </c>
       <c r="L21">
-        <v>1.00030345129486</v>
+        <v>0.9995945964503098</v>
       </c>
       <c r="M21">
-        <v>1.000223119021824</v>
+        <v>0.9999957897010758</v>
       </c>
       <c r="N21">
-        <v>1.000223119021824</v>
+        <v>0.9999957897010758</v>
       </c>
       <c r="O21">
-        <v>1.000061706274237</v>
+        <v>1.000091602323701</v>
       </c>
       <c r="P21">
-        <v>0.9999597416987326</v>
+        <v>1.000181155171924</v>
       </c>
       <c r="Q21">
-        <v>0.9999597416987326</v>
+        <v>1.000181155171924</v>
       </c>
       <c r="R21">
-        <v>0.9998280530371868</v>
+        <v>1.000273837907348</v>
       </c>
       <c r="S21">
-        <v>0.9998280530371868</v>
+        <v>1.000273837907348</v>
       </c>
       <c r="T21">
-        <v>1.000153115788475</v>
+        <v>0.9999514030098785</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.001378062745479</v>
+        <v>1.001568509281302</v>
       </c>
       <c r="D22">
-        <v>1.000001496582624</v>
+        <v>0.9980177367932583</v>
       </c>
       <c r="E22">
-        <v>0.9990011226003522</v>
+        <v>1.000268099548613</v>
       </c>
       <c r="F22">
-        <v>1.000533533698912</v>
+        <v>0.9998958934142397</v>
       </c>
       <c r="G22">
-        <v>1.000185996377965</v>
+        <v>0.9992075800409874</v>
       </c>
       <c r="H22">
-        <v>0.997468950011978</v>
+        <v>1.000099388044863</v>
       </c>
       <c r="I22">
-        <v>1.001378062745479</v>
+        <v>1.001568509281302</v>
       </c>
       <c r="J22">
-        <v>0.997468950011978</v>
+        <v>1.000099388044863</v>
       </c>
       <c r="K22">
-        <v>1.001378062745479</v>
+        <v>1.001568509281302</v>
       </c>
       <c r="L22">
-        <v>1.000185996377965</v>
+        <v>0.9992075800409874</v>
       </c>
       <c r="M22">
-        <v>0.9988274731949717</v>
+        <v>0.999653484042925</v>
       </c>
       <c r="N22">
-        <v>0.9988274731949717</v>
+        <v>0.999653484042925</v>
       </c>
       <c r="O22">
-        <v>0.9988853563300985</v>
+        <v>0.9998583558781545</v>
       </c>
       <c r="P22">
-        <v>0.9996776697118076</v>
+        <v>1.000291825789051</v>
       </c>
       <c r="Q22">
-        <v>0.9996776697118076</v>
+        <v>1.000291825789051</v>
       </c>
       <c r="R22">
-        <v>1.000102767970226</v>
+        <v>1.000610996662113</v>
       </c>
       <c r="S22">
-        <v>1.000102767970226</v>
+        <v>1.000610996662113</v>
       </c>
       <c r="T22">
-        <v>0.9997615270028853</v>
+        <v>0.9998428678538772</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.001780038078881</v>
+      </c>
+      <c r="D23">
+        <v>0.9962192039899348</v>
+      </c>
+      <c r="E23">
+        <v>1.001296856437085</v>
+      </c>
+      <c r="F23">
+        <v>0.9994059346680152</v>
+      </c>
+      <c r="G23">
+        <v>0.9984289376874705</v>
+      </c>
+      <c r="H23">
+        <v>1.002057596536896</v>
+      </c>
+      <c r="I23">
+        <v>1.001780038078881</v>
+      </c>
+      <c r="J23">
+        <v>1.002057596536896</v>
+      </c>
+      <c r="K23">
+        <v>1.001780038078881</v>
+      </c>
+      <c r="L23">
+        <v>0.9984289376874705</v>
+      </c>
+      <c r="M23">
+        <v>1.000243267112183</v>
+      </c>
+      <c r="N23">
+        <v>1.000243267112183</v>
+      </c>
+      <c r="O23">
+        <v>1.000594463553817</v>
+      </c>
+      <c r="P23">
+        <v>1.000755524101083</v>
+      </c>
+      <c r="Q23">
+        <v>1.000755524101083</v>
+      </c>
+      <c r="R23">
+        <v>1.001011652595532</v>
+      </c>
+      <c r="S23">
+        <v>1.001011652595532</v>
+      </c>
+      <c r="T23">
+        <v>0.9998647612330473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9877932451931216</v>
+      </c>
+      <c r="D24">
+        <v>1.012353087906899</v>
+      </c>
+      <c r="E24">
+        <v>0.9958367111768504</v>
+      </c>
+      <c r="F24">
+        <v>1.003277000515178</v>
+      </c>
+      <c r="G24">
+        <v>1.009648920589846</v>
+      </c>
+      <c r="H24">
+        <v>0.9842976226294291</v>
+      </c>
+      <c r="I24">
+        <v>0.9877932451931216</v>
+      </c>
+      <c r="J24">
+        <v>0.9842976226294291</v>
+      </c>
+      <c r="K24">
+        <v>0.9877932451931216</v>
+      </c>
+      <c r="L24">
+        <v>1.009648920589846</v>
+      </c>
+      <c r="M24">
+        <v>0.9969732716096378</v>
+      </c>
+      <c r="N24">
+        <v>0.9969732716096378</v>
+      </c>
+      <c r="O24">
+        <v>0.996594418132042</v>
+      </c>
+      <c r="P24">
+        <v>0.9939132628041324</v>
+      </c>
+      <c r="Q24">
+        <v>0.9939132628041324</v>
+      </c>
+      <c r="R24">
+        <v>0.9923832584013798</v>
+      </c>
+      <c r="S24">
+        <v>0.9923832584013798</v>
+      </c>
+      <c r="T24">
+        <v>0.9988677646685543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.012417350723668</v>
+      </c>
+      <c r="D25">
+        <v>1.001769513228698</v>
+      </c>
+      <c r="E25">
+        <v>0.9972891075569355</v>
+      </c>
+      <c r="F25">
+        <v>0.9991714166296326</v>
+      </c>
+      <c r="G25">
+        <v>0.9937204182804564</v>
+      </c>
+      <c r="H25">
+        <v>1.008235246009658</v>
+      </c>
+      <c r="I25">
+        <v>1.012417350723668</v>
+      </c>
+      <c r="J25">
+        <v>1.008235246009658</v>
+      </c>
+      <c r="K25">
+        <v>1.012417350723668</v>
+      </c>
+      <c r="L25">
+        <v>0.9937204182804564</v>
+      </c>
+      <c r="M25">
+        <v>1.000977832145057</v>
+      </c>
+      <c r="N25">
+        <v>1.000977832145057</v>
+      </c>
+      <c r="O25">
+        <v>0.9997482572823498</v>
+      </c>
+      <c r="P25">
+        <v>1.004791005004594</v>
+      </c>
+      <c r="Q25">
+        <v>1.004791005004594</v>
+      </c>
+      <c r="R25">
+        <v>1.006697591434363</v>
+      </c>
+      <c r="S25">
+        <v>1.006697591434363</v>
+      </c>
+      <c r="T25">
+        <v>1.002100508738175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.7094658101932654</v>
+      </c>
+      <c r="D26">
+        <v>0.4456680743781916</v>
+      </c>
+      <c r="E26">
+        <v>1.517071100800389</v>
+      </c>
+      <c r="F26">
+        <v>0.759973291157334</v>
+      </c>
+      <c r="G26">
+        <v>0.7807582616836947</v>
+      </c>
+      <c r="H26">
+        <v>1.987291489559742</v>
+      </c>
+      <c r="I26">
+        <v>0.7094658101932654</v>
+      </c>
+      <c r="J26">
+        <v>1.987291489559742</v>
+      </c>
+      <c r="K26">
+        <v>0.7094658101932654</v>
+      </c>
+      <c r="L26">
+        <v>0.7807582616836947</v>
+      </c>
+      <c r="M26">
+        <v>1.384024875621718</v>
+      </c>
+      <c r="N26">
+        <v>1.384024875621718</v>
+      </c>
+      <c r="O26">
+        <v>1.428373617347942</v>
+      </c>
+      <c r="P26">
+        <v>1.159171853812234</v>
+      </c>
+      <c r="Q26">
+        <v>1.159171853812234</v>
+      </c>
+      <c r="R26">
+        <v>1.046745342907492</v>
+      </c>
+      <c r="S26">
+        <v>1.046745342907492</v>
+      </c>
+      <c r="T26">
+        <v>1.033371337962103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.956837608256232</v>
+      </c>
+      <c r="D27">
+        <v>0.8001049906340567</v>
+      </c>
+      <c r="E27">
+        <v>1.137938637739547</v>
+      </c>
+      <c r="F27">
+        <v>0.94084302729389</v>
+      </c>
+      <c r="G27">
+        <v>0.9342608909187008</v>
+      </c>
+      <c r="H27">
+        <v>1.220094472832538</v>
+      </c>
+      <c r="I27">
+        <v>0.956837608256232</v>
+      </c>
+      <c r="J27">
+        <v>1.220094472832538</v>
+      </c>
+      <c r="K27">
+        <v>0.956837608256232</v>
+      </c>
+      <c r="L27">
+        <v>0.9342608909187008</v>
+      </c>
+      <c r="M27">
+        <v>1.07717768187562</v>
+      </c>
+      <c r="N27">
+        <v>1.07717768187562</v>
+      </c>
+      <c r="O27">
+        <v>1.097431333830262</v>
+      </c>
+      <c r="P27">
+        <v>1.03706432400249</v>
+      </c>
+      <c r="Q27">
+        <v>1.03706432400249</v>
+      </c>
+      <c r="R27">
+        <v>1.017007645065926</v>
+      </c>
+      <c r="S27">
+        <v>1.017007645065926</v>
+      </c>
+      <c r="T27">
+        <v>0.9983466046124941</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9778480483613802</v>
+      </c>
+      <c r="D28">
+        <v>1.136541479230731</v>
+      </c>
+      <c r="E28">
+        <v>0.9396545218474333</v>
+      </c>
+      <c r="F28">
+        <v>1.023288839586594</v>
+      </c>
+      <c r="G28">
+        <v>1.041988759653279</v>
+      </c>
+      <c r="H28">
+        <v>0.9298906180552243</v>
+      </c>
+      <c r="I28">
+        <v>0.9778480483613802</v>
+      </c>
+      <c r="J28">
+        <v>0.9298906180552243</v>
+      </c>
+      <c r="K28">
+        <v>0.9778480483613802</v>
+      </c>
+      <c r="L28">
+        <v>1.041988759653279</v>
+      </c>
+      <c r="M28">
+        <v>0.9859396888542518</v>
+      </c>
+      <c r="N28">
+        <v>0.9859396888542518</v>
+      </c>
+      <c r="O28">
+        <v>0.9705112998519789</v>
+      </c>
+      <c r="P28">
+        <v>0.9832424753566279</v>
+      </c>
+      <c r="Q28">
+        <v>0.9832424753566279</v>
+      </c>
+      <c r="R28">
+        <v>0.9818938686078159</v>
+      </c>
+      <c r="S28">
+        <v>0.9818938686078159</v>
+      </c>
+      <c r="T28">
+        <v>1.008202044455774</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9983778323287862</v>
+      </c>
+      <c r="D29">
+        <v>1.093002971614116</v>
+      </c>
+      <c r="E29">
+        <v>0.9503311839597405</v>
+      </c>
+      <c r="F29">
+        <v>1.020104848993438</v>
+      </c>
+      <c r="G29">
+        <v>1.029046013161774</v>
+      </c>
+      <c r="H29">
+        <v>0.9325039064806194</v>
+      </c>
+      <c r="I29">
+        <v>0.9983778323287862</v>
+      </c>
+      <c r="J29">
+        <v>0.9325039064806194</v>
+      </c>
+      <c r="K29">
+        <v>0.9983778323287862</v>
+      </c>
+      <c r="L29">
+        <v>1.029046013161774</v>
+      </c>
+      <c r="M29">
+        <v>0.9807749598211968</v>
+      </c>
+      <c r="N29">
+        <v>0.9807749598211968</v>
+      </c>
+      <c r="O29">
+        <v>0.9706270345340448</v>
+      </c>
+      <c r="P29">
+        <v>0.9866425839903933</v>
+      </c>
+      <c r="Q29">
+        <v>0.9866425839903933</v>
+      </c>
+      <c r="R29">
+        <v>0.9895763960749915</v>
+      </c>
+      <c r="S29">
+        <v>0.9895763960749915</v>
+      </c>
+      <c r="T29">
+        <v>1.003894459423079</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.038557474088583</v>
+      </c>
+      <c r="D30">
+        <v>1.005849328279889</v>
+      </c>
+      <c r="E30">
+        <v>0.9723125580470877</v>
+      </c>
+      <c r="F30">
+        <v>1.013419662530367</v>
+      </c>
+      <c r="G30">
+        <v>1.003074889085875</v>
+      </c>
+      <c r="H30">
+        <v>0.939212614959074</v>
+      </c>
+      <c r="I30">
+        <v>1.038557474088583</v>
+      </c>
+      <c r="J30">
+        <v>0.939212614959074</v>
+      </c>
+      <c r="K30">
+        <v>1.038557474088583</v>
+      </c>
+      <c r="L30">
+        <v>1.003074889085875</v>
+      </c>
+      <c r="M30">
+        <v>0.9711437520224745</v>
+      </c>
+      <c r="N30">
+        <v>0.9711437520224745</v>
+      </c>
+      <c r="O30">
+        <v>0.9715333540306789</v>
+      </c>
+      <c r="P30">
+        <v>0.9936149927111773</v>
+      </c>
+      <c r="Q30">
+        <v>0.9936149927111773</v>
+      </c>
+      <c r="R30">
+        <v>1.004850613055529</v>
+      </c>
+      <c r="S30">
+        <v>1.004850613055529</v>
+      </c>
+      <c r="T30">
+        <v>0.9954044211651459</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.051758535502132</v>
+      </c>
+      <c r="D31">
+        <v>1.000166443789177</v>
+      </c>
+      <c r="E31">
+        <v>0.9677913085298574</v>
+      </c>
+      <c r="F31">
+        <v>1.015655716421605</v>
+      </c>
+      <c r="G31">
+        <v>1.000798600671228</v>
+      </c>
+      <c r="H31">
+        <v>0.9278780897883793</v>
+      </c>
+      <c r="I31">
+        <v>1.051758535502132</v>
+      </c>
+      <c r="J31">
+        <v>0.9278780897883793</v>
+      </c>
+      <c r="K31">
+        <v>1.051758535502132</v>
+      </c>
+      <c r="L31">
+        <v>1.000798600671228</v>
+      </c>
+      <c r="M31">
+        <v>0.9643383452298038</v>
+      </c>
+      <c r="N31">
+        <v>0.9643383452298038</v>
+      </c>
+      <c r="O31">
+        <v>0.9654893329964883</v>
+      </c>
+      <c r="P31">
+        <v>0.9934784086539133</v>
+      </c>
+      <c r="Q31">
+        <v>0.9934784086539133</v>
+      </c>
+      <c r="R31">
+        <v>1.008048440365968</v>
+      </c>
+      <c r="S31">
+        <v>1.008048440365968</v>
+      </c>
+      <c r="T31">
+        <v>0.9940081157837298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9514722727397256</v>
+      </c>
+      <c r="D32">
+        <v>1.16713988</v>
+      </c>
+      <c r="E32">
+        <v>0.9406245706849314</v>
+      </c>
+      <c r="F32">
+        <v>1.02100977479452</v>
+      </c>
+      <c r="G32">
+        <v>1.049626037671233</v>
+      </c>
+      <c r="H32">
+        <v>0.949923395068493</v>
+      </c>
+      <c r="I32">
+        <v>0.9514722727397256</v>
+      </c>
+      <c r="J32">
+        <v>0.949923395068493</v>
+      </c>
+      <c r="K32">
+        <v>0.9514722727397256</v>
+      </c>
+      <c r="L32">
+        <v>1.049626037671233</v>
+      </c>
+      <c r="M32">
+        <v>0.9997747163698629</v>
+      </c>
+      <c r="N32">
+        <v>0.9997747163698629</v>
+      </c>
+      <c r="O32">
+        <v>0.9800580011415524</v>
+      </c>
+      <c r="P32">
+        <v>0.9836739018264838</v>
+      </c>
+      <c r="Q32">
+        <v>0.9836739018264838</v>
+      </c>
+      <c r="R32">
+        <v>0.9756234945547944</v>
+      </c>
+      <c r="S32">
+        <v>0.9756234945547944</v>
+      </c>
+      <c r="T32">
+        <v>1.013299321826484</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9505445952631577</v>
+      </c>
+      <c r="D33">
+        <v>0.6172963621052632</v>
+      </c>
+      <c r="E33">
+        <v>1.262084492631579</v>
+      </c>
+      <c r="F33">
+        <v>0.8809990821052632</v>
+      </c>
+      <c r="G33">
+        <v>0.8523795331578947</v>
+      </c>
+      <c r="H33">
+        <v>1.463372223157895</v>
+      </c>
+      <c r="I33">
+        <v>0.9505445952631577</v>
+      </c>
+      <c r="J33">
+        <v>1.463372223157895</v>
+      </c>
+      <c r="K33">
+        <v>0.9505445952631577</v>
+      </c>
+      <c r="L33">
+        <v>0.8523795331578947</v>
+      </c>
+      <c r="M33">
+        <v>1.157875878157895</v>
+      </c>
+      <c r="N33">
+        <v>1.157875878157895</v>
+      </c>
+      <c r="O33">
+        <v>1.192612082982456</v>
+      </c>
+      <c r="P33">
+        <v>1.088765450526316</v>
+      </c>
+      <c r="Q33">
+        <v>1.088765450526316</v>
+      </c>
+      <c r="R33">
+        <v>1.054210236710526</v>
+      </c>
+      <c r="S33">
+        <v>1.054210236710526</v>
+      </c>
+      <c r="T33">
+        <v>1.004446048070176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.9567933405263159</v>
+      </c>
+      <c r="D34">
+        <v>1.149672160526316</v>
+      </c>
+      <c r="E34">
+        <v>0.9477376073684212</v>
+      </c>
+      <c r="F34">
+        <v>1.017975865789474</v>
+      </c>
+      <c r="G34">
+        <v>1.043153866842105</v>
+      </c>
+      <c r="H34">
+        <v>0.9600666142105262</v>
+      </c>
+      <c r="I34">
+        <v>0.9567933405263159</v>
+      </c>
+      <c r="J34">
+        <v>0.9600666142105262</v>
+      </c>
+      <c r="K34">
+        <v>0.9567933405263159</v>
+      </c>
+      <c r="L34">
+        <v>1.043153866842105</v>
+      </c>
+      <c r="M34">
+        <v>1.001610240526316</v>
+      </c>
+      <c r="N34">
+        <v>1.001610240526316</v>
+      </c>
+      <c r="O34">
+        <v>0.9836526961403509</v>
+      </c>
+      <c r="P34">
+        <v>0.9866712738596491</v>
+      </c>
+      <c r="Q34">
+        <v>0.9866712738596491</v>
+      </c>
+      <c r="R34">
+        <v>0.9792017905263158</v>
+      </c>
+      <c r="S34">
+        <v>0.9792017905263158</v>
+      </c>
+      <c r="T34">
+        <v>1.012566575877193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.203606203526724</v>
+      </c>
+      <c r="D35">
+        <v>0.9839852873261863</v>
+      </c>
+      <c r="E35">
+        <v>0.8827068542321458</v>
+      </c>
+      <c r="F35">
+        <v>1.057627881180595</v>
+      </c>
+      <c r="G35">
+        <v>0.9975545077515375</v>
+      </c>
+      <c r="H35">
+        <v>0.7301794765563091</v>
+      </c>
+      <c r="I35">
+        <v>1.203606203526724</v>
+      </c>
+      <c r="J35">
+        <v>0.7301794765563091</v>
+      </c>
+      <c r="K35">
+        <v>1.203606203526724</v>
+      </c>
+      <c r="L35">
+        <v>0.9975545077515375</v>
+      </c>
+      <c r="M35">
+        <v>0.8638669921539233</v>
+      </c>
+      <c r="N35">
+        <v>0.8638669921539233</v>
+      </c>
+      <c r="O35">
+        <v>0.8701469461799974</v>
+      </c>
+      <c r="P35">
+        <v>0.9771133959448569</v>
+      </c>
+      <c r="Q35">
+        <v>0.9771133959448569</v>
+      </c>
+      <c r="R35">
+        <v>1.033736597840324</v>
+      </c>
+      <c r="S35">
+        <v>1.033736597840324</v>
+      </c>
+      <c r="T35">
+        <v>0.9759433684289162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000806786820845</v>
+      </c>
+      <c r="D36">
+        <v>0.9990578801361627</v>
+      </c>
+      <c r="E36">
+        <v>0.9999642478601126</v>
+      </c>
+      <c r="F36">
+        <v>1.000074894068761</v>
+      </c>
+      <c r="G36">
+        <v>0.9997737076151755</v>
+      </c>
+      <c r="H36">
+        <v>0.9993718849098128</v>
+      </c>
+      <c r="I36">
+        <v>1.000806786820845</v>
+      </c>
+      <c r="J36">
+        <v>0.9993718849098128</v>
+      </c>
+      <c r="K36">
+        <v>1.000806786820845</v>
+      </c>
+      <c r="L36">
+        <v>0.9997737076151755</v>
+      </c>
+      <c r="M36">
+        <v>0.9995727962624941</v>
+      </c>
+      <c r="N36">
+        <v>0.9995727962624941</v>
+      </c>
+      <c r="O36">
+        <v>0.999703280128367</v>
+      </c>
+      <c r="P36">
+        <v>0.9999841264486111</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999841264486112</v>
+      </c>
+      <c r="R36">
+        <v>1.00018979154167</v>
+      </c>
+      <c r="S36">
+        <v>1.00018979154167</v>
+      </c>
+      <c r="T36">
+        <v>0.9998415669018117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9994329870525496</v>
+      </c>
+      <c r="D37">
+        <v>1.001250920401314</v>
+      </c>
+      <c r="E37">
+        <v>0.9997388807790616</v>
+      </c>
+      <c r="F37">
+        <v>1.000049668454275</v>
+      </c>
+      <c r="G37">
+        <v>1.00030345129486</v>
+      </c>
+      <c r="H37">
+        <v>1.000142786748788</v>
+      </c>
+      <c r="I37">
+        <v>0.9994329870525496</v>
+      </c>
+      <c r="J37">
+        <v>1.000142786748788</v>
+      </c>
+      <c r="K37">
+        <v>0.9994329870525496</v>
+      </c>
+      <c r="L37">
+        <v>1.00030345129486</v>
+      </c>
+      <c r="M37">
+        <v>1.000223119021824</v>
+      </c>
+      <c r="N37">
+        <v>1.000223119021824</v>
+      </c>
+      <c r="O37">
+        <v>1.000061706274237</v>
+      </c>
+      <c r="P37">
+        <v>0.9999597416987326</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999597416987326</v>
+      </c>
+      <c r="R37">
+        <v>0.9998280530371868</v>
+      </c>
+      <c r="S37">
+        <v>0.9998280530371868</v>
+      </c>
+      <c r="T37">
+        <v>1.000153115788475</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.001378062745479</v>
+      </c>
+      <c r="D38">
+        <v>1.000001496582624</v>
+      </c>
+      <c r="E38">
+        <v>0.9990011226003522</v>
+      </c>
+      <c r="F38">
+        <v>1.000533533698912</v>
+      </c>
+      <c r="G38">
+        <v>1.000185996377965</v>
+      </c>
+      <c r="H38">
+        <v>0.997468950011978</v>
+      </c>
+      <c r="I38">
+        <v>1.001378062745479</v>
+      </c>
+      <c r="J38">
+        <v>0.997468950011978</v>
+      </c>
+      <c r="K38">
+        <v>1.001378062745479</v>
+      </c>
+      <c r="L38">
+        <v>1.000185996377965</v>
+      </c>
+      <c r="M38">
+        <v>0.9988274731949717</v>
+      </c>
+      <c r="N38">
+        <v>0.9988274731949717</v>
+      </c>
+      <c r="O38">
+        <v>0.9988853563300985</v>
+      </c>
+      <c r="P38">
+        <v>0.9996776697118076</v>
+      </c>
+      <c r="Q38">
+        <v>0.9996776697118076</v>
+      </c>
+      <c r="R38">
+        <v>1.000102767970226</v>
+      </c>
+      <c r="S38">
+        <v>1.000102767970226</v>
+      </c>
+      <c r="T38">
+        <v>0.9997615270028853</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.004821355080959</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9977981512755734</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.997630364470717</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.001441985785564</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000051312972357</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9924602117628354</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.004821355080959</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9924602117628354</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.004821355080959</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000051312972357</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9962557623675961</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9962557623675961</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9967139630686365</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.999110959938717</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.999110959938717</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000538558724278</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.000538558724278</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9990338968913343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.03372336807084</v>
+      </c>
+      <c r="D40">
+        <v>0.9961711781089936</v>
+      </c>
+      <c r="E40">
+        <v>0.9810375217350745</v>
+      </c>
+      <c r="F40">
+        <v>1.009436967881388</v>
+      </c>
+      <c r="G40">
+        <v>0.9994425689629421</v>
+      </c>
+      <c r="H40">
+        <v>0.9553015031043665</v>
+      </c>
+      <c r="I40">
+        <v>1.03372336807084</v>
+      </c>
+      <c r="J40">
+        <v>0.9553015031043665</v>
+      </c>
+      <c r="K40">
+        <v>1.03372336807084</v>
+      </c>
+      <c r="L40">
+        <v>0.9994425689629421</v>
+      </c>
+      <c r="M40">
+        <v>0.9773720360336543</v>
+      </c>
+      <c r="N40">
+        <v>0.9773720360336543</v>
+      </c>
+      <c r="O40">
+        <v>0.9785938646007944</v>
+      </c>
+      <c r="P40">
+        <v>0.9961558133793827</v>
+      </c>
+      <c r="Q40">
+        <v>0.9961558133793827</v>
+      </c>
+      <c r="R40">
+        <v>1.005547702052247</v>
+      </c>
+      <c r="S40">
+        <v>1.005547702052247</v>
+      </c>
+      <c r="T40">
+        <v>0.9958521846439341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.041062615187346</v>
+      </c>
+      <c r="D41">
+        <v>1.104104667318134</v>
+      </c>
+      <c r="E41">
+        <v>0.9126091988921012</v>
+      </c>
+      <c r="F41">
+        <v>1.039861699906982</v>
+      </c>
+      <c r="G41">
+        <v>1.039367501553292</v>
+      </c>
+      <c r="H41">
+        <v>0.8398328007021447</v>
+      </c>
+      <c r="I41">
+        <v>1.041062615187346</v>
+      </c>
+      <c r="J41">
+        <v>0.8398328007021447</v>
+      </c>
+      <c r="K41">
+        <v>1.041062615187346</v>
+      </c>
+      <c r="L41">
+        <v>1.039367501553292</v>
+      </c>
+      <c r="M41">
+        <v>0.9396001511277182</v>
+      </c>
+      <c r="N41">
+        <v>0.9396001511277182</v>
+      </c>
+      <c r="O41">
+        <v>0.9306031670491791</v>
+      </c>
+      <c r="P41">
+        <v>0.9734209724809274</v>
+      </c>
+      <c r="Q41">
+        <v>0.9734209724809274</v>
+      </c>
+      <c r="R41">
+        <v>0.990331383157532</v>
+      </c>
+      <c r="S41">
+        <v>0.990331383157532</v>
+      </c>
+      <c r="T41">
+        <v>0.99613974726</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.05686838731488</v>
+      </c>
+      <c r="D42">
+        <v>1.150786882902145</v>
+      </c>
+      <c r="E42">
+        <v>0.8776771595402814</v>
+      </c>
+      <c r="F42">
+        <v>1.054693071152112</v>
+      </c>
+      <c r="G42">
+        <v>1.053797886771556</v>
+      </c>
+      <c r="H42">
+        <v>0.7844995265685263</v>
+      </c>
+      <c r="I42">
+        <v>1.05686838731488</v>
+      </c>
+      <c r="J42">
+        <v>0.7844995265685263</v>
+      </c>
+      <c r="K42">
+        <v>1.05686838731488</v>
+      </c>
+      <c r="L42">
+        <v>1.053797886771556</v>
+      </c>
+      <c r="M42">
+        <v>0.919148706670041</v>
+      </c>
+      <c r="N42">
+        <v>0.919148706670041</v>
+      </c>
+      <c r="O42">
+        <v>0.9053248576267877</v>
+      </c>
+      <c r="P42">
+        <v>0.9650552668849873</v>
+      </c>
+      <c r="Q42">
+        <v>0.9650552668849873</v>
+      </c>
+      <c r="R42">
+        <v>0.9880085469924604</v>
+      </c>
+      <c r="S42">
+        <v>0.9880085469924604</v>
+      </c>
+      <c r="T42">
+        <v>0.9963871523749166</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossF-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW25.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9984801509501645</v>
+        <v>1.000646783850277</v>
       </c>
       <c r="D3">
-        <v>0.9967110786392752</v>
+        <v>0.9994621346108097</v>
       </c>
       <c r="E3">
-        <v>1.002263644948268</v>
+        <v>0.999934110443117</v>
       </c>
       <c r="F3">
-        <v>0.9984801509501645</v>
+        <v>1.000039765542676</v>
       </c>
       <c r="G3">
-        <v>1.007479220619864</v>
+        <v>0.999789967839379</v>
       </c>
       <c r="H3">
-        <v>0.9969114903208507</v>
+        <v>0.9997110926159413</v>
       </c>
       <c r="I3">
-        <v>1.00116058231535</v>
+        <v>1.000646783850277</v>
       </c>
       <c r="J3">
-        <v>0.9967110786392752</v>
+        <v>0.9997110926159413</v>
       </c>
       <c r="K3">
-        <v>0.9984801509501645</v>
+        <v>1.000646783850277</v>
       </c>
       <c r="L3">
-        <v>1.002263644948268</v>
+        <v>0.999789967839379</v>
       </c>
       <c r="M3">
-        <v>0.9994873617937714</v>
+        <v>0.9997505302276601</v>
       </c>
       <c r="N3">
-        <v>0.9994873617937714</v>
+        <v>0.9997505302276601</v>
       </c>
       <c r="O3">
-        <v>0.9986287379694646</v>
+        <v>0.9998117236328125</v>
       </c>
       <c r="P3">
-        <v>0.9991516248459025</v>
+        <v>1.000049281435199</v>
       </c>
       <c r="Q3">
-        <v>0.9991516248459025</v>
+        <v>1.000049281435199</v>
       </c>
       <c r="R3">
-        <v>0.998983756371968</v>
+        <v>1.000198657038968</v>
       </c>
       <c r="S3">
-        <v>0.998983756371968</v>
+        <v>1.000198657038968</v>
       </c>
       <c r="T3">
-        <v>1.000501027965629</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
+        <v>0.9999306424836999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9969679277897998</v>
+        <v>1.03372336807084</v>
       </c>
       <c r="D4">
-        <v>0.9936588932057756</v>
+        <v>0.9961711781089936</v>
       </c>
       <c r="E4">
-        <v>1.00441020513607</v>
+        <v>0.9810375217350745</v>
       </c>
       <c r="F4">
-        <v>0.9969679277897998</v>
+        <v>1.009436967881388</v>
       </c>
       <c r="G4">
-        <v>1.014508918581146</v>
+        <v>0.9994425689629421</v>
       </c>
       <c r="H4">
-        <v>0.9940434323072934</v>
+        <v>0.9553015031043665</v>
       </c>
       <c r="I4">
-        <v>1.00224044240491</v>
+        <v>1.03372336807084</v>
       </c>
       <c r="J4">
-        <v>0.9936588932057756</v>
+        <v>0.9553015031043665</v>
       </c>
       <c r="K4">
-        <v>0.9969679277897998</v>
+        <v>1.03372336807084</v>
       </c>
       <c r="L4">
-        <v>1.00441020513607</v>
+        <v>0.9994425689629421</v>
       </c>
       <c r="M4">
-        <v>0.9990345491709227</v>
+        <v>0.9773720360336543</v>
       </c>
       <c r="N4">
-        <v>0.9990345491709227</v>
+        <v>0.9773720360336543</v>
       </c>
       <c r="O4">
-        <v>0.9973708435497129</v>
+        <v>0.9785938646007944</v>
       </c>
       <c r="P4">
-        <v>0.9983456753772151</v>
+        <v>0.9961558133793827</v>
       </c>
       <c r="Q4">
-        <v>0.9983456753772151</v>
+        <v>0.9961558133793827</v>
       </c>
       <c r="R4">
-        <v>0.9980012384803613</v>
+        <v>1.005547702052247</v>
       </c>
       <c r="S4">
-        <v>0.9980012384803613</v>
+        <v>1.005547702052247</v>
       </c>
       <c r="T4">
-        <v>1.000971636570833</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
+        <v>0.9958521846439341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9949831284655811</v>
+        <v>1.044775427384725</v>
       </c>
       <c r="D5">
-        <v>0.9874610085842321</v>
+        <v>1.011427917658503</v>
       </c>
       <c r="E5">
-        <v>1.008184537478926</v>
+        <v>0.9654287324423634</v>
       </c>
       <c r="F5">
-        <v>0.9949831284655811</v>
+        <v>1.016520302961096</v>
       </c>
       <c r="G5">
-        <v>1.027003239377252</v>
+        <v>1.004892683386165</v>
       </c>
       <c r="H5">
-        <v>0.9885520177639171</v>
+        <v>0.9264285433573491</v>
       </c>
       <c r="I5">
-        <v>1.004335721027362</v>
+        <v>1.044775427384725</v>
       </c>
       <c r="J5">
-        <v>0.9874610085842321</v>
+        <v>0.9264285433573491</v>
       </c>
       <c r="K5">
-        <v>0.9949831284655811</v>
+        <v>1.044775427384725</v>
       </c>
       <c r="L5">
-        <v>1.008184537478926</v>
+        <v>1.004892683386165</v>
       </c>
       <c r="M5">
-        <v>0.997822773031579</v>
+        <v>0.9656606133717571</v>
       </c>
       <c r="N5">
-        <v>0.997822773031579</v>
+        <v>0.9656606133717571</v>
       </c>
       <c r="O5">
-        <v>0.9947325212756916</v>
+        <v>0.9655833197286259</v>
       </c>
       <c r="P5">
-        <v>0.9968762248429131</v>
+        <v>0.9920322180427462</v>
       </c>
       <c r="Q5">
-        <v>0.9968762248429131</v>
+        <v>0.9920322180427462</v>
       </c>
       <c r="R5">
-        <v>0.9964029507485801</v>
+        <v>1.005218020378241</v>
       </c>
       <c r="S5">
-        <v>0.9964029507485801</v>
+        <v>1.005218020378241</v>
       </c>
       <c r="T5">
-        <v>1.001753275449545</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
+        <v>0.9949122678650335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9930056534270264</v>
+        <v>1.203606203526724</v>
       </c>
       <c r="D6">
-        <v>0.9813808582936223</v>
+        <v>0.9839852873261863</v>
       </c>
       <c r="E6">
-        <v>1.011883745235539</v>
+        <v>0.8827068542321458</v>
       </c>
       <c r="F6">
-        <v>0.9930056534270264</v>
+        <v>1.057627881180595</v>
       </c>
       <c r="G6">
-        <v>1.039218443932764</v>
+        <v>0.9975545077515375</v>
       </c>
       <c r="H6">
-        <v>0.9832015947545938</v>
+        <v>0.7301794765563091</v>
       </c>
       <c r="I6">
-        <v>1.006379915525418</v>
+        <v>1.203606203526724</v>
       </c>
       <c r="J6">
-        <v>0.9813808582936223</v>
+        <v>0.7301794765563091</v>
       </c>
       <c r="K6">
-        <v>0.9930056534270264</v>
+        <v>1.203606203526724</v>
       </c>
       <c r="L6">
-        <v>1.011883745235539</v>
+        <v>0.9975545077515375</v>
       </c>
       <c r="M6">
-        <v>0.9966323017645805</v>
+        <v>0.8638669921539233</v>
       </c>
       <c r="N6">
-        <v>0.9966323017645805</v>
+        <v>0.8638669921539233</v>
       </c>
       <c r="O6">
-        <v>0.9921553994279183</v>
+        <v>0.8701469461799974</v>
       </c>
       <c r="P6">
-        <v>0.9954234189853958</v>
+        <v>0.9771133959448569</v>
       </c>
       <c r="Q6">
-        <v>0.9954234189853958</v>
+        <v>0.9771133959448569</v>
       </c>
       <c r="R6">
-        <v>0.9948189775958034</v>
+        <v>1.033736597840324</v>
       </c>
       <c r="S6">
-        <v>0.9948189775958034</v>
+        <v>1.033736597840324</v>
       </c>
       <c r="T6">
-        <v>1.002511701861494</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
+        <v>0.9759433684289162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000320980767071</v>
+        <v>0.9980844768910373</v>
       </c>
       <c r="D7">
-        <v>0.9997197167459833</v>
+        <v>1.008824318959857</v>
       </c>
       <c r="E7">
-        <v>0.9999446055374837</v>
+        <v>0.9964160584912506</v>
       </c>
       <c r="F7">
-        <v>1.000320980767071</v>
+        <v>1.00134601170121</v>
       </c>
       <c r="G7">
-        <v>0.9998497590001298</v>
+        <v>1.002688211395009</v>
       </c>
       <c r="H7">
-        <v>0.9998934257610902</v>
+        <v>0.9962118585906424</v>
       </c>
       <c r="I7">
-        <v>1.000054333257085</v>
+        <v>0.9980844768910373</v>
       </c>
       <c r="J7">
-        <v>0.9997197167459833</v>
+        <v>0.9962118585906424</v>
       </c>
       <c r="K7">
-        <v>1.000320980767071</v>
+        <v>0.9980844768910373</v>
       </c>
       <c r="L7">
-        <v>0.9999446055374837</v>
+        <v>1.002688211395009</v>
       </c>
       <c r="M7">
-        <v>0.9998321611417335</v>
+        <v>0.9994500349928259</v>
       </c>
       <c r="N7">
-        <v>0.9998321611417335</v>
+        <v>0.9994500349928259</v>
       </c>
       <c r="O7">
-        <v>0.9998525826815191</v>
+        <v>0.9984387094923007</v>
       </c>
       <c r="P7">
-        <v>0.9999951010168461</v>
+        <v>0.9989948489588963</v>
       </c>
       <c r="Q7">
-        <v>0.9999951010168461</v>
+        <v>0.9989948489588963</v>
       </c>
       <c r="R7">
-        <v>1.000076570954402</v>
+        <v>0.9987672559419316</v>
       </c>
       <c r="S7">
-        <v>1.000076570954402</v>
+        <v>0.9987672559419316</v>
       </c>
       <c r="T7">
-        <v>0.999963803511474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>1.000595156004835</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000646783850277</v>
+        <v>0.9994329870525496</v>
       </c>
       <c r="D8">
-        <v>0.9997110926159409</v>
+        <v>1.001250920401314</v>
       </c>
       <c r="E8">
-        <v>0.9997899678393787</v>
+        <v>0.9997388807790616</v>
       </c>
       <c r="F8">
-        <v>1.000646783850277</v>
+        <v>1.000049668454275</v>
       </c>
       <c r="G8">
-        <v>0.9994621346108102</v>
+        <v>1.00030345129486</v>
       </c>
       <c r="H8">
-        <v>0.9999341104431165</v>
+        <v>1.000142786748788</v>
       </c>
       <c r="I8">
-        <v>1.000039765542676</v>
+        <v>0.9994329870525496</v>
       </c>
       <c r="J8">
-        <v>0.9997110926159409</v>
+        <v>1.000142786748788</v>
       </c>
       <c r="K8">
-        <v>1.000646783850277</v>
+        <v>0.9994329870525496</v>
       </c>
       <c r="L8">
-        <v>0.9997899678393787</v>
+        <v>1.00030345129486</v>
       </c>
       <c r="M8">
-        <v>0.9997505302276598</v>
+        <v>1.000223119021824</v>
       </c>
       <c r="N8">
-        <v>0.9997505302276598</v>
+        <v>1.000223119021824</v>
       </c>
       <c r="O8">
-        <v>0.999811723632812</v>
+        <v>1.000061706274237</v>
       </c>
       <c r="P8">
-        <v>1.000049281435199</v>
+        <v>0.9999597416987326</v>
       </c>
       <c r="Q8">
-        <v>1.000049281435199</v>
+        <v>0.9999597416987326</v>
       </c>
       <c r="R8">
-        <v>1.000198657038968</v>
+        <v>0.9998280530371868</v>
       </c>
       <c r="S8">
-        <v>1.000198657038968</v>
+        <v>0.9998280530371868</v>
       </c>
       <c r="T8">
-        <v>0.9999306424836999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+        <v>1.000153115788475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00055188611362</v>
+        <v>0.9969679277897998</v>
       </c>
       <c r="D9">
-        <v>1.000396982951842</v>
+        <v>1.014508918581146</v>
       </c>
       <c r="E9">
-        <v>0.9995945964503098</v>
+        <v>0.9940434323072934</v>
       </c>
       <c r="F9">
-        <v>1.00055188611362</v>
+        <v>1.00224044240491</v>
       </c>
       <c r="G9">
-        <v>0.9990080388634267</v>
+        <v>1.00441020513607</v>
       </c>
       <c r="H9">
-        <v>1.000283227568951</v>
+        <v>0.9936588932057756</v>
       </c>
       <c r="I9">
-        <v>0.9998736861111206</v>
+        <v>0.9969679277897998</v>
       </c>
       <c r="J9">
-        <v>1.000396982951842</v>
+        <v>0.9936588932057756</v>
       </c>
       <c r="K9">
-        <v>1.00055188611362</v>
+        <v>0.9969679277897998</v>
       </c>
       <c r="L9">
-        <v>0.9995945964503098</v>
+        <v>1.00441020513607</v>
       </c>
       <c r="M9">
-        <v>0.9999957897010758</v>
+        <v>0.9990345491709227</v>
       </c>
       <c r="N9">
-        <v>0.9999957897010758</v>
+        <v>0.9990345491709227</v>
       </c>
       <c r="O9">
-        <v>1.000091602323701</v>
+        <v>0.9973708435497129</v>
       </c>
       <c r="P9">
-        <v>1.000181155171924</v>
+        <v>0.9983456753772151</v>
       </c>
       <c r="Q9">
-        <v>1.000181155171924</v>
+        <v>0.9983456753772151</v>
       </c>
       <c r="R9">
-        <v>1.000273837907348</v>
+        <v>0.9980012384803613</v>
       </c>
       <c r="S9">
-        <v>1.000273837907348</v>
+        <v>0.9980012384803613</v>
       </c>
       <c r="T9">
-        <v>0.9999514030098785</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+        <v>1.000971636570833</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.001568509281302</v>
+        <v>1.209478596736624</v>
       </c>
       <c r="D10">
-        <v>1.000099388044863</v>
+        <v>0.9814880882666068</v>
       </c>
       <c r="E10">
-        <v>0.9992075800409874</v>
+        <v>0.8807905154425774</v>
       </c>
       <c r="F10">
-        <v>1.001568509281302</v>
+        <v>1.058534523099467</v>
       </c>
       <c r="G10">
-        <v>0.9980177367932583</v>
+        <v>0.9964176305307255</v>
       </c>
       <c r="H10">
-        <v>1.000268099548613</v>
+        <v>0.7256473233777079</v>
       </c>
       <c r="I10">
-        <v>0.9998958934142397</v>
+        <v>1.209478596736624</v>
       </c>
       <c r="J10">
-        <v>1.000099388044863</v>
+        <v>0.7256473233777079</v>
       </c>
       <c r="K10">
-        <v>1.001568509281302</v>
+        <v>1.209478596736624</v>
       </c>
       <c r="L10">
-        <v>0.9992075800409874</v>
+        <v>0.9964176305307255</v>
       </c>
       <c r="M10">
-        <v>0.999653484042925</v>
+        <v>0.8610324769542167</v>
       </c>
       <c r="N10">
-        <v>0.999653484042925</v>
+        <v>0.8610324769542167</v>
       </c>
       <c r="O10">
-        <v>0.9998583558781545</v>
+        <v>0.8676184897836703</v>
       </c>
       <c r="P10">
-        <v>1.000291825789051</v>
+        <v>0.9771811835483524</v>
       </c>
       <c r="Q10">
-        <v>1.000291825789051</v>
+        <v>0.9771811835483524</v>
       </c>
       <c r="R10">
-        <v>1.000610996662113</v>
+        <v>1.03525553684542</v>
       </c>
       <c r="S10">
-        <v>1.000610996662113</v>
+        <v>1.03525553684542</v>
       </c>
       <c r="T10">
-        <v>0.9998428678538772</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>0.975392779575618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.001780038078882</v>
+        <v>1.078817616479539</v>
       </c>
       <c r="D11">
-        <v>1.002057596536896</v>
+        <v>1.121944962721527</v>
       </c>
       <c r="E11">
-        <v>0.9984289376874705</v>
+        <v>0.8782845972294477</v>
       </c>
       <c r="F11">
-        <v>1.001780038078882</v>
+        <v>1.056186602460438</v>
       </c>
       <c r="G11">
-        <v>0.9962192039899348</v>
+        <v>1.046873434226879</v>
       </c>
       <c r="H11">
-        <v>1.001296856437085</v>
+        <v>0.7686179678919673</v>
       </c>
       <c r="I11">
-        <v>0.9994059346680152</v>
+        <v>1.078817616479539</v>
       </c>
       <c r="J11">
-        <v>1.002057596536896</v>
+        <v>0.7686179678919673</v>
       </c>
       <c r="K11">
-        <v>1.001780038078882</v>
+        <v>1.078817616479539</v>
       </c>
       <c r="L11">
-        <v>0.9984289376874705</v>
+        <v>1.046873434226879</v>
       </c>
       <c r="M11">
-        <v>1.000243267112183</v>
+        <v>0.907745701059423</v>
       </c>
       <c r="N11">
-        <v>1.000243267112183</v>
+        <v>0.907745701059423</v>
       </c>
       <c r="O11">
-        <v>1.000594463553817</v>
+        <v>0.8979253331160978</v>
       </c>
       <c r="P11">
-        <v>1.000755524101083</v>
+        <v>0.9647696728661285</v>
       </c>
       <c r="Q11">
-        <v>1.000755524101083</v>
+        <v>0.9647696728661285</v>
       </c>
       <c r="R11">
-        <v>1.001011652595532</v>
+        <v>0.9932816587694812</v>
       </c>
       <c r="S11">
-        <v>1.001011652595532</v>
+        <v>0.9932816587694812</v>
       </c>
       <c r="T11">
-        <v>0.9998647612330473</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+        <v>0.9917875301682998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9877932451931217</v>
+        <v>1.064095110673683</v>
       </c>
       <c r="D12">
-        <v>0.9842976226294291</v>
+        <v>0.9999361497473674</v>
       </c>
       <c r="E12">
-        <v>1.009648920589846</v>
+        <v>0.9602149220315773</v>
       </c>
       <c r="F12">
-        <v>0.9877932451931217</v>
+        <v>1.01937052063158</v>
       </c>
       <c r="G12">
-        <v>1.012353087906899</v>
+        <v>1.000965343557895</v>
       </c>
       <c r="H12">
-        <v>0.9958367111768501</v>
+        <v>0.9106085826526302</v>
       </c>
       <c r="I12">
-        <v>1.003277000515178</v>
+        <v>1.064095110673683</v>
       </c>
       <c r="J12">
-        <v>0.9842976226294291</v>
+        <v>0.9106085826526302</v>
       </c>
       <c r="K12">
-        <v>0.9877932451931217</v>
+        <v>1.064095110673683</v>
       </c>
       <c r="L12">
-        <v>1.009648920589846</v>
+        <v>1.000965343557895</v>
       </c>
       <c r="M12">
-        <v>0.9969732716096377</v>
+        <v>0.9557869631052628</v>
       </c>
       <c r="N12">
-        <v>0.9969732716096377</v>
+        <v>0.9557869631052628</v>
       </c>
       <c r="O12">
-        <v>0.9965944181320419</v>
+        <v>0.9572629494140342</v>
       </c>
       <c r="P12">
-        <v>0.9939132628041323</v>
+        <v>0.9918896789614028</v>
       </c>
       <c r="Q12">
-        <v>0.9939132628041323</v>
+        <v>0.9918896789614028</v>
       </c>
       <c r="R12">
-        <v>0.9923832584013796</v>
+        <v>1.009941036889473</v>
       </c>
       <c r="S12">
-        <v>0.9923832584013796</v>
+        <v>1.009941036889473</v>
       </c>
       <c r="T12">
-        <v>0.998867764668554</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+        <v>0.9925317715491223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.012417350723668</v>
+        <v>0.9873469206918554</v>
       </c>
       <c r="D13">
-        <v>1.008235246009658</v>
+        <v>0.9783477298494805</v>
       </c>
       <c r="E13">
-        <v>0.9937204182804563</v>
+        <v>1.022000727039909</v>
       </c>
       <c r="F13">
-        <v>1.012417350723668</v>
+        <v>0.9893858949339559</v>
       </c>
       <c r="G13">
-        <v>1.001769513228698</v>
+        <v>0.9902249856618901</v>
       </c>
       <c r="H13">
-        <v>0.9972891075569357</v>
+        <v>1.045129919038737</v>
       </c>
       <c r="I13">
-        <v>0.9991714166296327</v>
+        <v>0.9873469206918554</v>
       </c>
       <c r="J13">
-        <v>1.008235246009658</v>
+        <v>1.045129919038737</v>
       </c>
       <c r="K13">
-        <v>1.012417350723668</v>
+        <v>0.9873469206918554</v>
       </c>
       <c r="L13">
-        <v>0.9937204182804563</v>
+        <v>0.9902249856618901</v>
       </c>
       <c r="M13">
-        <v>1.000977832145057</v>
+        <v>1.017677452350313</v>
       </c>
       <c r="N13">
-        <v>1.000977832145057</v>
+        <v>1.017677452350313</v>
       </c>
       <c r="O13">
-        <v>0.99974825728235</v>
+        <v>1.019118543913512</v>
       </c>
       <c r="P13">
-        <v>1.004791005004594</v>
+        <v>1.007567275130827</v>
       </c>
       <c r="Q13">
-        <v>1.004791005004594</v>
+        <v>1.007567275130827</v>
       </c>
       <c r="R13">
-        <v>1.006697591434363</v>
+        <v>1.002512186521084</v>
       </c>
       <c r="S13">
-        <v>1.006697591434363</v>
+        <v>1.002512186521084</v>
       </c>
       <c r="T13">
-        <v>1.002100508738175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+        <v>1.002072696202638</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7094658101932654</v>
+        <v>1.367955899999999</v>
       </c>
       <c r="D14">
-        <v>1.987291489559742</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="E14">
-        <v>0.7807582616836948</v>
+        <v>0.7938064499999996</v>
       </c>
       <c r="F14">
-        <v>0.7094658101932654</v>
+        <v>1.101462400000001</v>
       </c>
       <c r="G14">
-        <v>0.4456680743781916</v>
+        <v>0.9917943100000015</v>
       </c>
       <c r="H14">
-        <v>1.517071100800389</v>
+        <v>0.5229061699999994</v>
       </c>
       <c r="I14">
-        <v>0.7599732911573341</v>
+        <v>1.367955899999999</v>
       </c>
       <c r="J14">
-        <v>1.987291489559742</v>
+        <v>0.5229061699999994</v>
       </c>
       <c r="K14">
-        <v>0.7094658101932654</v>
+        <v>1.367955899999999</v>
       </c>
       <c r="L14">
-        <v>0.7807582616836948</v>
+        <v>0.9917943100000015</v>
       </c>
       <c r="M14">
-        <v>1.384024875621718</v>
+        <v>0.7573502400000005</v>
       </c>
       <c r="N14">
-        <v>1.384024875621718</v>
+        <v>0.7573502400000005</v>
       </c>
       <c r="O14">
-        <v>1.428373617347942</v>
+        <v>0.7695023100000001</v>
       </c>
       <c r="P14">
-        <v>1.159171853812234</v>
+        <v>0.9608854600000001</v>
       </c>
       <c r="Q14">
-        <v>1.159171853812234</v>
+        <v>0.9608854600000001</v>
       </c>
       <c r="R14">
-        <v>1.046745342907492</v>
+        <v>1.06265307</v>
       </c>
       <c r="S14">
-        <v>1.046745342907492</v>
+        <v>1.06265307</v>
       </c>
       <c r="T14">
-        <v>1.033371337962103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
+        <v>0.9566266583333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.956837608256232</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="D15">
-        <v>1.220094472832538</v>
+        <v>0.25020352</v>
       </c>
       <c r="E15">
-        <v>0.9342608909187008</v>
+        <v>1.7748516</v>
       </c>
       <c r="F15">
-        <v>0.956837608256232</v>
+        <v>0.62952744</v>
       </c>
       <c r="G15">
-        <v>0.8001049906340567</v>
+        <v>0.67340451</v>
       </c>
       <c r="H15">
-        <v>1.137938637739547</v>
+        <v>2.5748425</v>
       </c>
       <c r="I15">
-        <v>0.94084302729389</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="J15">
-        <v>1.220094472832538</v>
+        <v>2.5748425</v>
       </c>
       <c r="K15">
-        <v>0.956837608256232</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="L15">
-        <v>0.9342608909187008</v>
+        <v>0.67340451</v>
       </c>
       <c r="M15">
-        <v>1.07717768187562</v>
+        <v>1.624123505</v>
       </c>
       <c r="N15">
-        <v>1.07717768187562</v>
+        <v>1.624123505</v>
       </c>
       <c r="O15">
-        <v>1.097431333830262</v>
+        <v>1.674366203333333</v>
       </c>
       <c r="P15">
-        <v>1.03706432400249</v>
+        <v>1.25705106</v>
       </c>
       <c r="Q15">
-        <v>1.03706432400249</v>
+        <v>1.25705106</v>
       </c>
       <c r="R15">
-        <v>1.017007645065926</v>
+        <v>1.0735148375</v>
       </c>
       <c r="S15">
-        <v>1.017007645065926</v>
+        <v>1.0735148375</v>
       </c>
       <c r="T15">
-        <v>0.9983466046124941</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
+        <v>1.070955956666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000806786820845</v>
+        <v>1.3679559</v>
       </c>
       <c r="D16">
-        <v>0.9993718849098129</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="E16">
-        <v>0.9997737076151757</v>
+        <v>0.7938064500000001</v>
       </c>
       <c r="F16">
-        <v>1.000806786820845</v>
+        <v>1.1014624</v>
       </c>
       <c r="G16">
-        <v>0.9990578801361627</v>
+        <v>0.99179431</v>
       </c>
       <c r="H16">
-        <v>0.999964247860113</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="I16">
-        <v>1.000074894068761</v>
+        <v>1.3679559</v>
       </c>
       <c r="J16">
-        <v>0.9993718849098129</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="K16">
-        <v>1.000806786820845</v>
+        <v>1.3679559</v>
       </c>
       <c r="L16">
-        <v>0.9997737076151757</v>
+        <v>0.99179431</v>
       </c>
       <c r="M16">
-        <v>0.9995727962624943</v>
+        <v>0.75735024</v>
       </c>
       <c r="N16">
-        <v>0.9995727962624943</v>
+        <v>0.75735024</v>
       </c>
       <c r="O16">
-        <v>0.9997032801283673</v>
+        <v>0.76950231</v>
       </c>
       <c r="P16">
-        <v>0.9999841264486112</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="Q16">
-        <v>0.9999841264486112</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="R16">
-        <v>1.00018979154167</v>
+        <v>1.06265307</v>
       </c>
       <c r="S16">
-        <v>1.00018979154167</v>
+        <v>1.06265307</v>
       </c>
       <c r="T16">
-        <v>0.9998415669018117</v>
+        <v>0.9566266583333332</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9994329870525497</v>
+        <v>0.70705465</v>
       </c>
       <c r="D17">
-        <v>1.000142786748789</v>
+        <v>0.4163156499999999</v>
       </c>
       <c r="E17">
-        <v>1.00030345129486</v>
+        <v>1.5352467</v>
       </c>
       <c r="F17">
-        <v>0.9994329870525497</v>
+        <v>0.7523954700000001</v>
       </c>
       <c r="G17">
-        <v>1.001250920401314</v>
+        <v>0.7710542500000002</v>
       </c>
       <c r="H17">
-        <v>0.9997388807790615</v>
+        <v>2.0119774</v>
       </c>
       <c r="I17">
-        <v>1.000049668454275</v>
+        <v>0.70705465</v>
       </c>
       <c r="J17">
-        <v>1.000142786748789</v>
+        <v>2.0119774</v>
       </c>
       <c r="K17">
-        <v>0.9994329870525497</v>
+        <v>0.70705465</v>
       </c>
       <c r="L17">
-        <v>1.00030345129486</v>
+        <v>0.7710542500000002</v>
       </c>
       <c r="M17">
-        <v>1.000223119021824</v>
+        <v>1.391515825</v>
       </c>
       <c r="N17">
-        <v>1.000223119021824</v>
+        <v>1.391515825</v>
       </c>
       <c r="O17">
-        <v>1.000061706274237</v>
+        <v>1.439426116666667</v>
       </c>
       <c r="P17">
-        <v>0.9999597416987327</v>
+        <v>1.1633621</v>
       </c>
       <c r="Q17">
-        <v>0.9999597416987328</v>
+        <v>1.1633621</v>
       </c>
       <c r="R17">
-        <v>0.999828053037187</v>
+        <v>1.0492852375</v>
       </c>
       <c r="S17">
-        <v>0.999828053037187</v>
+        <v>1.0492852375</v>
       </c>
       <c r="T17">
-        <v>1.000153115788475</v>
+        <v>1.032340686666666</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.001378062745479</v>
+        <v>0.9514722727397256</v>
       </c>
       <c r="D18">
-        <v>0.9974689500119778</v>
+        <v>1.16713988</v>
       </c>
       <c r="E18">
-        <v>1.000185996377965</v>
+        <v>0.9406245706849314</v>
       </c>
       <c r="F18">
-        <v>1.001378062745479</v>
+        <v>1.02100977479452</v>
       </c>
       <c r="G18">
-        <v>1.000001496582623</v>
+        <v>1.049626037671233</v>
       </c>
       <c r="H18">
-        <v>0.9990011226003522</v>
+        <v>0.949923395068493</v>
       </c>
       <c r="I18">
-        <v>1.000533533698912</v>
+        <v>0.9514722727397256</v>
       </c>
       <c r="J18">
-        <v>0.9974689500119778</v>
+        <v>0.949923395068493</v>
       </c>
       <c r="K18">
-        <v>1.001378062745479</v>
+        <v>0.9514722727397256</v>
       </c>
       <c r="L18">
-        <v>1.000185996377965</v>
+        <v>1.049626037671233</v>
       </c>
       <c r="M18">
-        <v>0.9988274731949716</v>
+        <v>0.9997747163698629</v>
       </c>
       <c r="N18">
-        <v>0.9988274731949716</v>
+        <v>0.9997747163698629</v>
       </c>
       <c r="O18">
-        <v>0.9988853563300985</v>
+        <v>0.9800580011415524</v>
       </c>
       <c r="P18">
-        <v>0.9996776697118074</v>
+        <v>0.9836739018264838</v>
       </c>
       <c r="Q18">
-        <v>0.9996776697118074</v>
+        <v>0.9836739018264838</v>
       </c>
       <c r="R18">
-        <v>1.000102767970225</v>
+        <v>0.9756234945547944</v>
       </c>
       <c r="S18">
-        <v>1.000102767970225</v>
+        <v>0.9756234945547944</v>
       </c>
       <c r="T18">
-        <v>0.9997615270028849</v>
+        <v>1.013299321826484</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.004821355080959</v>
+        <v>0.9505445952631577</v>
       </c>
       <c r="D19">
-        <v>0.9924602117628354</v>
+        <v>0.6172963621052632</v>
       </c>
       <c r="E19">
-        <v>1.000051312972357</v>
+        <v>1.262084492631579</v>
       </c>
       <c r="F19">
-        <v>1.004821355080959</v>
+        <v>0.8809990821052632</v>
       </c>
       <c r="G19">
-        <v>0.9977981512755734</v>
+        <v>0.8523795331578947</v>
       </c>
       <c r="H19">
-        <v>0.9976303644707172</v>
+        <v>1.463372223157895</v>
       </c>
       <c r="I19">
-        <v>1.001441985785564</v>
+        <v>0.9505445952631577</v>
       </c>
       <c r="J19">
-        <v>0.9924602117628354</v>
+        <v>1.463372223157895</v>
       </c>
       <c r="K19">
-        <v>1.004821355080959</v>
+        <v>0.9505445952631577</v>
       </c>
       <c r="L19">
-        <v>1.000051312972357</v>
+        <v>0.8523795331578947</v>
       </c>
       <c r="M19">
-        <v>0.9962557623675961</v>
+        <v>1.157875878157895</v>
       </c>
       <c r="N19">
-        <v>0.9962557623675961</v>
+        <v>1.157875878157895</v>
       </c>
       <c r="O19">
-        <v>0.9967139630686365</v>
+        <v>1.192612082982456</v>
       </c>
       <c r="P19">
-        <v>0.999110959938717</v>
+        <v>1.088765450526316</v>
       </c>
       <c r="Q19">
-        <v>0.999110959938717</v>
+        <v>1.088765450526316</v>
       </c>
       <c r="R19">
-        <v>1.000538558724278</v>
+        <v>1.054210236710526</v>
       </c>
       <c r="S19">
-        <v>1.000538558724278</v>
+        <v>1.054210236710526</v>
       </c>
       <c r="T19">
-        <v>0.9990338968913343</v>
+        <v>1.004446048070176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9567933405263159</v>
+      </c>
+      <c r="D20">
+        <v>1.149672160526316</v>
+      </c>
+      <c r="E20">
+        <v>0.9477376073684212</v>
+      </c>
+      <c r="F20">
+        <v>1.017975865789474</v>
+      </c>
+      <c r="G20">
+        <v>1.043153866842105</v>
+      </c>
+      <c r="H20">
+        <v>0.9600666142105262</v>
+      </c>
+      <c r="I20">
+        <v>0.9567933405263159</v>
+      </c>
+      <c r="J20">
+        <v>0.9600666142105262</v>
+      </c>
+      <c r="K20">
+        <v>0.9567933405263159</v>
+      </c>
+      <c r="L20">
+        <v>1.043153866842105</v>
+      </c>
+      <c r="M20">
+        <v>1.001610240526316</v>
+      </c>
+      <c r="N20">
+        <v>1.001610240526316</v>
+      </c>
+      <c r="O20">
+        <v>0.9836526961403509</v>
+      </c>
+      <c r="P20">
+        <v>0.9866712738596491</v>
+      </c>
+      <c r="Q20">
+        <v>0.9866712738596491</v>
+      </c>
+      <c r="R20">
+        <v>0.9792017905263158</v>
+      </c>
+      <c r="S20">
+        <v>0.9792017905263158</v>
+      </c>
+      <c r="T20">
+        <v>1.012566575877193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.7094658101932654</v>
+      </c>
+      <c r="D21">
+        <v>0.4456680743781916</v>
+      </c>
+      <c r="E21">
+        <v>1.517071100800389</v>
+      </c>
+      <c r="F21">
+        <v>0.759973291157334</v>
+      </c>
+      <c r="G21">
+        <v>0.7807582616836947</v>
+      </c>
+      <c r="H21">
+        <v>1.987291489559742</v>
+      </c>
+      <c r="I21">
+        <v>0.7094658101932654</v>
+      </c>
+      <c r="J21">
+        <v>1.987291489559742</v>
+      </c>
+      <c r="K21">
+        <v>0.7094658101932654</v>
+      </c>
+      <c r="L21">
+        <v>0.7807582616836947</v>
+      </c>
+      <c r="M21">
+        <v>1.384024875621718</v>
+      </c>
+      <c r="N21">
+        <v>1.384024875621718</v>
+      </c>
+      <c r="O21">
+        <v>1.428373617347942</v>
+      </c>
+      <c r="P21">
+        <v>1.159171853812234</v>
+      </c>
+      <c r="Q21">
+        <v>1.159171853812234</v>
+      </c>
+      <c r="R21">
+        <v>1.046745342907492</v>
+      </c>
+      <c r="S21">
+        <v>1.046745342907492</v>
+      </c>
+      <c r="T21">
+        <v>1.033371337962103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.956837608256232</v>
+      </c>
+      <c r="D22">
+        <v>0.8001049906340567</v>
+      </c>
+      <c r="E22">
+        <v>1.137938637739547</v>
+      </c>
+      <c r="F22">
+        <v>0.94084302729389</v>
+      </c>
+      <c r="G22">
+        <v>0.9342608909187008</v>
+      </c>
+      <c r="H22">
+        <v>1.220094472832538</v>
+      </c>
+      <c r="I22">
+        <v>0.956837608256232</v>
+      </c>
+      <c r="J22">
+        <v>1.220094472832538</v>
+      </c>
+      <c r="K22">
+        <v>0.956837608256232</v>
+      </c>
+      <c r="L22">
+        <v>0.9342608909187008</v>
+      </c>
+      <c r="M22">
+        <v>1.07717768187562</v>
+      </c>
+      <c r="N22">
+        <v>1.07717768187562</v>
+      </c>
+      <c r="O22">
+        <v>1.097431333830262</v>
+      </c>
+      <c r="P22">
+        <v>1.03706432400249</v>
+      </c>
+      <c r="Q22">
+        <v>1.03706432400249</v>
+      </c>
+      <c r="R22">
+        <v>1.017007645065926</v>
+      </c>
+      <c r="S22">
+        <v>1.017007645065926</v>
+      </c>
+      <c r="T22">
+        <v>0.9983466046124941</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9877932451931216</v>
+      </c>
+      <c r="D23">
+        <v>1.012353087906899</v>
+      </c>
+      <c r="E23">
+        <v>0.9958367111768504</v>
+      </c>
+      <c r="F23">
+        <v>1.003277000515178</v>
+      </c>
+      <c r="G23">
+        <v>1.009648920589846</v>
+      </c>
+      <c r="H23">
+        <v>0.9842976226294291</v>
+      </c>
+      <c r="I23">
+        <v>0.9877932451931216</v>
+      </c>
+      <c r="J23">
+        <v>0.9842976226294291</v>
+      </c>
+      <c r="K23">
+        <v>0.9877932451931216</v>
+      </c>
+      <c r="L23">
+        <v>1.009648920589846</v>
+      </c>
+      <c r="M23">
+        <v>0.9969732716096378</v>
+      </c>
+      <c r="N23">
+        <v>0.9969732716096378</v>
+      </c>
+      <c r="O23">
+        <v>0.996594418132042</v>
+      </c>
+      <c r="P23">
+        <v>0.9939132628041324</v>
+      </c>
+      <c r="Q23">
+        <v>0.9939132628041324</v>
+      </c>
+      <c r="R23">
+        <v>0.9923832584013798</v>
+      </c>
+      <c r="S23">
+        <v>0.9923832584013798</v>
+      </c>
+      <c r="T23">
+        <v>0.9988677646685543</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.012417350723668</v>
+      </c>
+      <c r="D24">
+        <v>1.001769513228698</v>
+      </c>
+      <c r="E24">
+        <v>0.9972891075569355</v>
+      </c>
+      <c r="F24">
+        <v>0.9991714166296326</v>
+      </c>
+      <c r="G24">
+        <v>0.9937204182804564</v>
+      </c>
+      <c r="H24">
+        <v>1.008235246009658</v>
+      </c>
+      <c r="I24">
+        <v>1.012417350723668</v>
+      </c>
+      <c r="J24">
+        <v>1.008235246009658</v>
+      </c>
+      <c r="K24">
+        <v>1.012417350723668</v>
+      </c>
+      <c r="L24">
+        <v>0.9937204182804564</v>
+      </c>
+      <c r="M24">
+        <v>1.000977832145057</v>
+      </c>
+      <c r="N24">
+        <v>1.000977832145057</v>
+      </c>
+      <c r="O24">
+        <v>0.9997482572823498</v>
+      </c>
+      <c r="P24">
+        <v>1.004791005004594</v>
+      </c>
+      <c r="Q24">
+        <v>1.004791005004594</v>
+      </c>
+      <c r="R24">
+        <v>1.006697591434363</v>
+      </c>
+      <c r="S24">
+        <v>1.006697591434363</v>
+      </c>
+      <c r="T24">
+        <v>1.002100508738175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.026238597490308</v>
+      </c>
+      <c r="D25">
+        <v>1.666904030482522</v>
+      </c>
+      <c r="E25">
+        <v>0.6015906712504764</v>
+      </c>
+      <c r="F25">
+        <v>1.171660200104622</v>
+      </c>
+      <c r="G25">
+        <v>1.231504511976268</v>
+      </c>
+      <c r="H25">
+        <v>0.3714423812481314</v>
+      </c>
+      <c r="I25">
+        <v>1.026238597490308</v>
+      </c>
+      <c r="J25">
+        <v>0.3714423812481314</v>
+      </c>
+      <c r="K25">
+        <v>1.026238597490308</v>
+      </c>
+      <c r="L25">
+        <v>1.231504511976268</v>
+      </c>
+      <c r="M25">
+        <v>0.8014734466121994</v>
+      </c>
+      <c r="N25">
+        <v>0.8014734466121994</v>
+      </c>
+      <c r="O25">
+        <v>0.7348458548249583</v>
+      </c>
+      <c r="P25">
+        <v>0.8763951635715689</v>
+      </c>
+      <c r="Q25">
+        <v>0.8763951635715689</v>
+      </c>
+      <c r="R25">
+        <v>0.9138560220512537</v>
+      </c>
+      <c r="S25">
+        <v>0.9138560220512537</v>
+      </c>
+      <c r="T25">
+        <v>1.011556732092054</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.112333449944351</v>
+      </c>
+      <c r="D26">
+        <v>1.054495661141747</v>
+      </c>
+      <c r="E26">
+        <v>0.8896802287133404</v>
+      </c>
+      <c r="F26">
+        <v>1.055008481145014</v>
+      </c>
+      <c r="G26">
+        <v>1.031417962512543</v>
+      </c>
+      <c r="H26">
+        <v>0.7547194126561589</v>
+      </c>
+      <c r="I26">
+        <v>1.112333449944351</v>
+      </c>
+      <c r="J26">
+        <v>0.7547194126561589</v>
+      </c>
+      <c r="K26">
+        <v>1.112333449944351</v>
+      </c>
+      <c r="L26">
+        <v>1.031417962512543</v>
+      </c>
+      <c r="M26">
+        <v>0.8930686875843509</v>
+      </c>
+      <c r="N26">
+        <v>0.8930686875843509</v>
+      </c>
+      <c r="O26">
+        <v>0.8919392012940141</v>
+      </c>
+      <c r="P26">
+        <v>0.9661569417043511</v>
+      </c>
+      <c r="Q26">
+        <v>0.9661569417043511</v>
+      </c>
+      <c r="R26">
+        <v>1.002701068764351</v>
+      </c>
+      <c r="S26">
+        <v>1.002701068764351</v>
+      </c>
+      <c r="T26">
+        <v>0.9829425326855256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9979128718268249</v>
+      </c>
+      <c r="D27">
+        <v>1.01973748468589</v>
+      </c>
+      <c r="E27">
+        <v>0.9888658016855725</v>
+      </c>
+      <c r="F27">
+        <v>1.005165363597813</v>
+      </c>
+      <c r="G27">
+        <v>1.008149913662128</v>
+      </c>
+      <c r="H27">
+        <v>0.9800743683866489</v>
+      </c>
+      <c r="I27">
+        <v>0.9979128718268249</v>
+      </c>
+      <c r="J27">
+        <v>0.9800743683866489</v>
+      </c>
+      <c r="K27">
+        <v>0.9979128718268249</v>
+      </c>
+      <c r="L27">
+        <v>1.008149913662128</v>
+      </c>
+      <c r="M27">
+        <v>0.9941121410243883</v>
+      </c>
+      <c r="N27">
+        <v>0.9941121410243883</v>
+      </c>
+      <c r="O27">
+        <v>0.992363361244783</v>
+      </c>
+      <c r="P27">
+        <v>0.9953790512918671</v>
+      </c>
+      <c r="Q27">
+        <v>0.9953790512918671</v>
+      </c>
+      <c r="R27">
+        <v>0.9960125064256066</v>
+      </c>
+      <c r="S27">
+        <v>0.9960125064256066</v>
+      </c>
+      <c r="T27">
+        <v>0.9999843006408128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9660071142422785</v>
+      </c>
+      <c r="D28">
+        <v>1.016037041976239</v>
+      </c>
+      <c r="E28">
+        <v>1.012615006349163</v>
+      </c>
+      <c r="F28">
+        <v>0.9930083561934849</v>
+      </c>
+      <c r="G28">
+        <v>1.004119987306768</v>
+      </c>
+      <c r="H28">
+        <v>1.03759621302832</v>
+      </c>
+      <c r="I28">
+        <v>0.9660071142422785</v>
+      </c>
+      <c r="J28">
+        <v>1.03759621302832</v>
+      </c>
+      <c r="K28">
+        <v>0.9660071142422785</v>
+      </c>
+      <c r="L28">
+        <v>1.004119987306768</v>
+      </c>
+      <c r="M28">
+        <v>1.020858100167544</v>
+      </c>
+      <c r="N28">
+        <v>1.020858100167544</v>
+      </c>
+      <c r="O28">
+        <v>1.018110402228084</v>
+      </c>
+      <c r="P28">
+        <v>1.002574438192456</v>
+      </c>
+      <c r="Q28">
+        <v>1.002574438192456</v>
+      </c>
+      <c r="R28">
+        <v>0.9934326072049112</v>
+      </c>
+      <c r="S28">
+        <v>0.9934326072049112</v>
+      </c>
+      <c r="T28">
+        <v>1.004897286516042</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9334137017759986</v>
+      </c>
+      <c r="D29">
+        <v>0.9984126452817281</v>
+      </c>
+      <c r="E29">
+        <v>1.051356262338955</v>
+      </c>
+      <c r="F29">
+        <v>0.9718141210010978</v>
+      </c>
+      <c r="G29">
+        <v>0.9876167638481708</v>
+      </c>
+      <c r="H29">
+        <v>1.136731254946343</v>
+      </c>
+      <c r="I29">
+        <v>0.9334137017759986</v>
+      </c>
+      <c r="J29">
+        <v>1.136731254946343</v>
+      </c>
+      <c r="K29">
+        <v>0.9334137017759986</v>
+      </c>
+      <c r="L29">
+        <v>0.9876167638481708</v>
+      </c>
+      <c r="M29">
+        <v>1.062174009397257</v>
+      </c>
+      <c r="N29">
+        <v>1.062174009397257</v>
+      </c>
+      <c r="O29">
+        <v>1.058568093711156</v>
+      </c>
+      <c r="P29">
+        <v>1.019253906856837</v>
+      </c>
+      <c r="Q29">
+        <v>1.019253906856837</v>
+      </c>
+      <c r="R29">
+        <v>0.9977938555866276</v>
+      </c>
+      <c r="S29">
+        <v>0.9977938555866276</v>
+      </c>
+      <c r="T29">
+        <v>1.013224124865382</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossF-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.03372336807084</v>
+        <v>1.041987970143587</v>
       </c>
       <c r="D4">
-        <v>0.9961711781089936</v>
+        <v>1.010632073398005</v>
       </c>
       <c r="E4">
-        <v>0.9810375217350745</v>
+        <v>0.9671800689469803</v>
       </c>
       <c r="F4">
-        <v>1.009436967881388</v>
+        <v>1.015855393705073</v>
       </c>
       <c r="G4">
-        <v>0.9994425689629421</v>
+        <v>1.005101250207399</v>
       </c>
       <c r="H4">
-        <v>0.9553015031043665</v>
+        <v>0.9288940756220727</v>
       </c>
       <c r="I4">
-        <v>1.03372336807084</v>
+        <v>1.041987970143587</v>
       </c>
       <c r="J4">
-        <v>0.9553015031043665</v>
+        <v>0.9288940756220727</v>
       </c>
       <c r="K4">
-        <v>1.03372336807084</v>
+        <v>1.041987970143587</v>
       </c>
       <c r="L4">
-        <v>0.9994425689629421</v>
+        <v>1.005101250207399</v>
       </c>
       <c r="M4">
-        <v>0.9773720360336543</v>
+        <v>0.9669976629147359</v>
       </c>
       <c r="N4">
-        <v>0.9773720360336543</v>
+        <v>0.9669976629147359</v>
       </c>
       <c r="O4">
-        <v>0.9785938646007944</v>
+        <v>0.967058464925484</v>
       </c>
       <c r="P4">
-        <v>0.9961558133793827</v>
+        <v>0.9919944319910196</v>
       </c>
       <c r="Q4">
-        <v>0.9961558133793827</v>
+        <v>0.9919944319910196</v>
       </c>
       <c r="R4">
-        <v>1.005547702052247</v>
+        <v>1.004492816529162</v>
       </c>
       <c r="S4">
-        <v>1.005547702052247</v>
+        <v>1.004492816529162</v>
       </c>
       <c r="T4">
-        <v>0.9958521846439341</v>
+        <v>0.9949418053371861</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.044775427384725</v>
+        <v>0.9348891019861739</v>
       </c>
       <c r="D5">
-        <v>1.011427917658503</v>
+        <v>1.185041148226768</v>
       </c>
       <c r="E5">
-        <v>0.9654287324423634</v>
+        <v>0.940553933913443</v>
       </c>
       <c r="F5">
-        <v>1.016520302961096</v>
+        <v>1.020493867917573</v>
       </c>
       <c r="G5">
-        <v>1.004892683386165</v>
+        <v>1.055722173225175</v>
       </c>
       <c r="H5">
-        <v>0.9264285433573491</v>
+        <v>0.9565206442981622</v>
       </c>
       <c r="I5">
-        <v>1.044775427384725</v>
+        <v>0.9348891019861739</v>
       </c>
       <c r="J5">
-        <v>0.9264285433573491</v>
+        <v>0.9565206442981622</v>
       </c>
       <c r="K5">
-        <v>1.044775427384725</v>
+        <v>0.9348891019861739</v>
       </c>
       <c r="L5">
-        <v>1.004892683386165</v>
+        <v>1.055722173225175</v>
       </c>
       <c r="M5">
-        <v>0.9656606133717571</v>
+        <v>1.006121408761668</v>
       </c>
       <c r="N5">
-        <v>0.9656606133717571</v>
+        <v>1.006121408761668</v>
       </c>
       <c r="O5">
-        <v>0.9655833197286259</v>
+        <v>0.9842655838122599</v>
       </c>
       <c r="P5">
-        <v>0.9920322180427462</v>
+        <v>0.9823773065031701</v>
       </c>
       <c r="Q5">
-        <v>0.9920322180427462</v>
+        <v>0.9823773065031703</v>
       </c>
       <c r="R5">
-        <v>1.005218020378241</v>
+        <v>0.9705052553739212</v>
       </c>
       <c r="S5">
-        <v>1.005218020378241</v>
+        <v>0.9705052553739212</v>
       </c>
       <c r="T5">
-        <v>0.9949122678650335</v>
+        <v>1.015536811594549</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.203606203526724</v>
+        <v>1.03372336807084</v>
       </c>
       <c r="D6">
-        <v>0.9839852873261863</v>
+        <v>0.9961711781089936</v>
       </c>
       <c r="E6">
-        <v>0.8827068542321458</v>
+        <v>0.9810375217350745</v>
       </c>
       <c r="F6">
-        <v>1.057627881180595</v>
+        <v>1.009436967881388</v>
       </c>
       <c r="G6">
-        <v>0.9975545077515375</v>
+        <v>0.9994425689629421</v>
       </c>
       <c r="H6">
-        <v>0.7301794765563091</v>
+        <v>0.9553015031043665</v>
       </c>
       <c r="I6">
-        <v>1.203606203526724</v>
+        <v>1.03372336807084</v>
       </c>
       <c r="J6">
-        <v>0.7301794765563091</v>
+        <v>0.9553015031043665</v>
       </c>
       <c r="K6">
-        <v>1.203606203526724</v>
+        <v>1.03372336807084</v>
       </c>
       <c r="L6">
-        <v>0.9975545077515375</v>
+        <v>0.9994425689629421</v>
       </c>
       <c r="M6">
-        <v>0.8638669921539233</v>
+        <v>0.9773720360336543</v>
       </c>
       <c r="N6">
-        <v>0.8638669921539233</v>
+        <v>0.9773720360336543</v>
       </c>
       <c r="O6">
-        <v>0.8701469461799974</v>
+        <v>0.9785938646007944</v>
       </c>
       <c r="P6">
-        <v>0.9771133959448569</v>
+        <v>0.9961558133793827</v>
       </c>
       <c r="Q6">
-        <v>0.9771133959448569</v>
+        <v>0.9961558133793827</v>
       </c>
       <c r="R6">
-        <v>1.033736597840324</v>
+        <v>1.005547702052247</v>
       </c>
       <c r="S6">
-        <v>1.033736597840324</v>
+        <v>1.005547702052247</v>
       </c>
       <c r="T6">
-        <v>0.9759433684289162</v>
+        <v>0.9958521846439341</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9980844768910373</v>
+        <v>1.044775427384725</v>
       </c>
       <c r="D7">
-        <v>1.008824318959857</v>
+        <v>1.011427917658503</v>
       </c>
       <c r="E7">
-        <v>0.9964160584912506</v>
+        <v>0.9654287324423634</v>
       </c>
       <c r="F7">
-        <v>1.00134601170121</v>
+        <v>1.016520302961096</v>
       </c>
       <c r="G7">
-        <v>1.002688211395009</v>
+        <v>1.004892683386165</v>
       </c>
       <c r="H7">
-        <v>0.9962118585906424</v>
+        <v>0.9264285433573491</v>
       </c>
       <c r="I7">
-        <v>0.9980844768910373</v>
+        <v>1.044775427384725</v>
       </c>
       <c r="J7">
-        <v>0.9962118585906424</v>
+        <v>0.9264285433573491</v>
       </c>
       <c r="K7">
-        <v>0.9980844768910373</v>
+        <v>1.044775427384725</v>
       </c>
       <c r="L7">
-        <v>1.002688211395009</v>
+        <v>1.004892683386165</v>
       </c>
       <c r="M7">
-        <v>0.9994500349928259</v>
+        <v>0.9656606133717571</v>
       </c>
       <c r="N7">
-        <v>0.9994500349928259</v>
+        <v>0.9656606133717571</v>
       </c>
       <c r="O7">
-        <v>0.9984387094923007</v>
+        <v>0.9655833197286259</v>
       </c>
       <c r="P7">
-        <v>0.9989948489588963</v>
+        <v>0.9920322180427462</v>
       </c>
       <c r="Q7">
-        <v>0.9989948489588963</v>
+        <v>0.9920322180427462</v>
       </c>
       <c r="R7">
-        <v>0.9987672559419316</v>
+        <v>1.005218020378241</v>
       </c>
       <c r="S7">
-        <v>0.9987672559419316</v>
+        <v>1.005218020378241</v>
       </c>
       <c r="T7">
-        <v>1.000595156004835</v>
+        <v>0.9949122678650335</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9994329870525496</v>
+        <v>1.203606203526724</v>
       </c>
       <c r="D8">
-        <v>1.001250920401314</v>
+        <v>0.9839852873261863</v>
       </c>
       <c r="E8">
-        <v>0.9997388807790616</v>
+        <v>0.8827068542321458</v>
       </c>
       <c r="F8">
-        <v>1.000049668454275</v>
+        <v>1.057627881180595</v>
       </c>
       <c r="G8">
-        <v>1.00030345129486</v>
+        <v>0.9975545077515375</v>
       </c>
       <c r="H8">
-        <v>1.000142786748788</v>
+        <v>0.7301794765563091</v>
       </c>
       <c r="I8">
-        <v>0.9994329870525496</v>
+        <v>1.203606203526724</v>
       </c>
       <c r="J8">
-        <v>1.000142786748788</v>
+        <v>0.7301794765563091</v>
       </c>
       <c r="K8">
-        <v>0.9994329870525496</v>
+        <v>1.203606203526724</v>
       </c>
       <c r="L8">
-        <v>1.00030345129486</v>
+        <v>0.9975545077515375</v>
       </c>
       <c r="M8">
-        <v>1.000223119021824</v>
+        <v>0.8638669921539233</v>
       </c>
       <c r="N8">
-        <v>1.000223119021824</v>
+        <v>0.8638669921539233</v>
       </c>
       <c r="O8">
-        <v>1.000061706274237</v>
+        <v>0.8701469461799974</v>
       </c>
       <c r="P8">
-        <v>0.9999597416987326</v>
+        <v>0.9771133959448569</v>
       </c>
       <c r="Q8">
-        <v>0.9999597416987326</v>
+        <v>0.9771133959448569</v>
       </c>
       <c r="R8">
-        <v>0.9998280530371868</v>
+        <v>1.033736597840324</v>
       </c>
       <c r="S8">
-        <v>0.9998280530371868</v>
+        <v>1.033736597840324</v>
       </c>
       <c r="T8">
-        <v>1.000153115788475</v>
+        <v>0.9759433684289162</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9969679277897998</v>
+        <v>0.9980844768910373</v>
       </c>
       <c r="D9">
-        <v>1.014508918581146</v>
+        <v>1.008824318959857</v>
       </c>
       <c r="E9">
-        <v>0.9940434323072934</v>
+        <v>0.9964160584912506</v>
       </c>
       <c r="F9">
-        <v>1.00224044240491</v>
+        <v>1.00134601170121</v>
       </c>
       <c r="G9">
-        <v>1.00441020513607</v>
+        <v>1.002688211395009</v>
       </c>
       <c r="H9">
-        <v>0.9936588932057756</v>
+        <v>0.9962118585906424</v>
       </c>
       <c r="I9">
-        <v>0.9969679277897998</v>
+        <v>0.9980844768910373</v>
       </c>
       <c r="J9">
-        <v>0.9936588932057756</v>
+        <v>0.9962118585906424</v>
       </c>
       <c r="K9">
-        <v>0.9969679277897998</v>
+        <v>0.9980844768910373</v>
       </c>
       <c r="L9">
-        <v>1.00441020513607</v>
+        <v>1.002688211395009</v>
       </c>
       <c r="M9">
-        <v>0.9990345491709227</v>
+        <v>0.9994500349928259</v>
       </c>
       <c r="N9">
-        <v>0.9990345491709227</v>
+        <v>0.9994500349928259</v>
       </c>
       <c r="O9">
-        <v>0.9973708435497129</v>
+        <v>0.9984387094923007</v>
       </c>
       <c r="P9">
-        <v>0.9983456753772151</v>
+        <v>0.9989948489588963</v>
       </c>
       <c r="Q9">
-        <v>0.9983456753772151</v>
+        <v>0.9989948489588963</v>
       </c>
       <c r="R9">
-        <v>0.9980012384803613</v>
+        <v>0.9987672559419316</v>
       </c>
       <c r="S9">
-        <v>0.9980012384803613</v>
+        <v>0.9987672559419316</v>
       </c>
       <c r="T9">
-        <v>1.000971636570833</v>
+        <v>1.000595156004835</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.209478596736624</v>
+        <v>0.9994329870525496</v>
       </c>
       <c r="D10">
-        <v>0.9814880882666068</v>
+        <v>1.001250920401314</v>
       </c>
       <c r="E10">
-        <v>0.8807905154425774</v>
+        <v>0.9997388807790616</v>
       </c>
       <c r="F10">
-        <v>1.058534523099467</v>
+        <v>1.000049668454275</v>
       </c>
       <c r="G10">
-        <v>0.9964176305307255</v>
+        <v>1.00030345129486</v>
       </c>
       <c r="H10">
-        <v>0.7256473233777079</v>
+        <v>1.000142786748788</v>
       </c>
       <c r="I10">
-        <v>1.209478596736624</v>
+        <v>0.9994329870525496</v>
       </c>
       <c r="J10">
-        <v>0.7256473233777079</v>
+        <v>1.000142786748788</v>
       </c>
       <c r="K10">
-        <v>1.209478596736624</v>
+        <v>0.9994329870525496</v>
       </c>
       <c r="L10">
-        <v>0.9964176305307255</v>
+        <v>1.00030345129486</v>
       </c>
       <c r="M10">
-        <v>0.8610324769542167</v>
+        <v>1.000223119021824</v>
       </c>
       <c r="N10">
-        <v>0.8610324769542167</v>
+        <v>1.000223119021824</v>
       </c>
       <c r="O10">
-        <v>0.8676184897836703</v>
+        <v>1.000061706274237</v>
       </c>
       <c r="P10">
-        <v>0.9771811835483524</v>
+        <v>0.9999597416987326</v>
       </c>
       <c r="Q10">
-        <v>0.9771811835483524</v>
+        <v>0.9999597416987326</v>
       </c>
       <c r="R10">
-        <v>1.03525553684542</v>
+        <v>0.9998280530371868</v>
       </c>
       <c r="S10">
-        <v>1.03525553684542</v>
+        <v>0.9998280530371868</v>
       </c>
       <c r="T10">
-        <v>0.975392779575618</v>
+        <v>1.000153115788475</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.078817616479539</v>
+        <v>0.9969679277897998</v>
       </c>
       <c r="D11">
-        <v>1.121944962721527</v>
+        <v>1.014508918581146</v>
       </c>
       <c r="E11">
-        <v>0.8782845972294477</v>
+        <v>0.9940434323072934</v>
       </c>
       <c r="F11">
-        <v>1.056186602460438</v>
+        <v>1.00224044240491</v>
       </c>
       <c r="G11">
-        <v>1.046873434226879</v>
+        <v>1.00441020513607</v>
       </c>
       <c r="H11">
-        <v>0.7686179678919673</v>
+        <v>0.9936588932057756</v>
       </c>
       <c r="I11">
-        <v>1.078817616479539</v>
+        <v>0.9969679277897998</v>
       </c>
       <c r="J11">
-        <v>0.7686179678919673</v>
+        <v>0.9936588932057756</v>
       </c>
       <c r="K11">
-        <v>1.078817616479539</v>
+        <v>0.9969679277897998</v>
       </c>
       <c r="L11">
-        <v>1.046873434226879</v>
+        <v>1.00441020513607</v>
       </c>
       <c r="M11">
-        <v>0.907745701059423</v>
+        <v>0.9990345491709227</v>
       </c>
       <c r="N11">
-        <v>0.907745701059423</v>
+        <v>0.9990345491709227</v>
       </c>
       <c r="O11">
-        <v>0.8979253331160978</v>
+        <v>0.9973708435497129</v>
       </c>
       <c r="P11">
-        <v>0.9647696728661285</v>
+        <v>0.9983456753772151</v>
       </c>
       <c r="Q11">
-        <v>0.9647696728661285</v>
+        <v>0.9983456753772151</v>
       </c>
       <c r="R11">
-        <v>0.9932816587694812</v>
+        <v>0.9980012384803613</v>
       </c>
       <c r="S11">
-        <v>0.9932816587694812</v>
+        <v>0.9980012384803613</v>
       </c>
       <c r="T11">
-        <v>0.9917875301682998</v>
+        <v>1.000971636570833</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.064095110673683</v>
+        <v>1.209478596736624</v>
       </c>
       <c r="D12">
-        <v>0.9999361497473674</v>
+        <v>0.9814880882666068</v>
       </c>
       <c r="E12">
-        <v>0.9602149220315773</v>
+        <v>0.8807905154425774</v>
       </c>
       <c r="F12">
-        <v>1.01937052063158</v>
+        <v>1.058534523099467</v>
       </c>
       <c r="G12">
-        <v>1.000965343557895</v>
+        <v>0.9964176305307255</v>
       </c>
       <c r="H12">
-        <v>0.9106085826526302</v>
+        <v>0.7256473233777079</v>
       </c>
       <c r="I12">
-        <v>1.064095110673683</v>
+        <v>1.209478596736624</v>
       </c>
       <c r="J12">
-        <v>0.9106085826526302</v>
+        <v>0.7256473233777079</v>
       </c>
       <c r="K12">
-        <v>1.064095110673683</v>
+        <v>1.209478596736624</v>
       </c>
       <c r="L12">
-        <v>1.000965343557895</v>
+        <v>0.9964176305307255</v>
       </c>
       <c r="M12">
-        <v>0.9557869631052628</v>
+        <v>0.8610324769542167</v>
       </c>
       <c r="N12">
-        <v>0.9557869631052628</v>
+        <v>0.8610324769542167</v>
       </c>
       <c r="O12">
-        <v>0.9572629494140342</v>
+        <v>0.8676184897836703</v>
       </c>
       <c r="P12">
-        <v>0.9918896789614028</v>
+        <v>0.9771811835483524</v>
       </c>
       <c r="Q12">
-        <v>0.9918896789614028</v>
+        <v>0.9771811835483524</v>
       </c>
       <c r="R12">
-        <v>1.009941036889473</v>
+        <v>1.03525553684542</v>
       </c>
       <c r="S12">
-        <v>1.009941036889473</v>
+        <v>1.03525553684542</v>
       </c>
       <c r="T12">
-        <v>0.9925317715491223</v>
+        <v>0.975392779575618</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9873469206918554</v>
+        <v>1.078817616479539</v>
       </c>
       <c r="D13">
-        <v>0.9783477298494805</v>
+        <v>1.121944962721527</v>
       </c>
       <c r="E13">
-        <v>1.022000727039909</v>
+        <v>0.8782845972294477</v>
       </c>
       <c r="F13">
-        <v>0.9893858949339559</v>
+        <v>1.056186602460438</v>
       </c>
       <c r="G13">
-        <v>0.9902249856618901</v>
+        <v>1.046873434226879</v>
       </c>
       <c r="H13">
-        <v>1.045129919038737</v>
+        <v>0.7686179678919673</v>
       </c>
       <c r="I13">
-        <v>0.9873469206918554</v>
+        <v>1.078817616479539</v>
       </c>
       <c r="J13">
-        <v>1.045129919038737</v>
+        <v>0.7686179678919673</v>
       </c>
       <c r="K13">
-        <v>0.9873469206918554</v>
+        <v>1.078817616479539</v>
       </c>
       <c r="L13">
-        <v>0.9902249856618901</v>
+        <v>1.046873434226879</v>
       </c>
       <c r="M13">
-        <v>1.017677452350313</v>
+        <v>0.907745701059423</v>
       </c>
       <c r="N13">
-        <v>1.017677452350313</v>
+        <v>0.907745701059423</v>
       </c>
       <c r="O13">
-        <v>1.019118543913512</v>
+        <v>0.8979253331160978</v>
       </c>
       <c r="P13">
-        <v>1.007567275130827</v>
+        <v>0.9647696728661285</v>
       </c>
       <c r="Q13">
-        <v>1.007567275130827</v>
+        <v>0.9647696728661285</v>
       </c>
       <c r="R13">
-        <v>1.002512186521084</v>
+        <v>0.9932816587694812</v>
       </c>
       <c r="S13">
-        <v>1.002512186521084</v>
+        <v>0.9932816587694812</v>
       </c>
       <c r="T13">
-        <v>1.002072696202638</v>
+        <v>0.9917875301682998</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.367955899999999</v>
+        <v>1.064095110673683</v>
       </c>
       <c r="D14">
-        <v>0.9618347199999993</v>
+        <v>0.9999361497473674</v>
       </c>
       <c r="E14">
-        <v>0.7938064499999996</v>
+        <v>0.9602149220315773</v>
       </c>
       <c r="F14">
-        <v>1.101462400000001</v>
+        <v>1.01937052063158</v>
       </c>
       <c r="G14">
-        <v>0.9917943100000015</v>
+        <v>1.000965343557895</v>
       </c>
       <c r="H14">
-        <v>0.5229061699999994</v>
+        <v>0.9106085826526302</v>
       </c>
       <c r="I14">
-        <v>1.367955899999999</v>
+        <v>1.064095110673683</v>
       </c>
       <c r="J14">
-        <v>0.5229061699999994</v>
+        <v>0.9106085826526302</v>
       </c>
       <c r="K14">
-        <v>1.367955899999999</v>
+        <v>1.064095110673683</v>
       </c>
       <c r="L14">
-        <v>0.9917943100000015</v>
+        <v>1.000965343557895</v>
       </c>
       <c r="M14">
-        <v>0.7573502400000005</v>
+        <v>0.9557869631052628</v>
       </c>
       <c r="N14">
-        <v>0.7573502400000005</v>
+        <v>0.9557869631052628</v>
       </c>
       <c r="O14">
-        <v>0.7695023100000001</v>
+        <v>0.9572629494140342</v>
       </c>
       <c r="P14">
-        <v>0.9608854600000001</v>
+        <v>0.9918896789614028</v>
       </c>
       <c r="Q14">
-        <v>0.9608854600000001</v>
+        <v>0.9918896789614028</v>
       </c>
       <c r="R14">
-        <v>1.06265307</v>
+        <v>1.009941036889473</v>
       </c>
       <c r="S14">
-        <v>1.06265307</v>
+        <v>1.009941036889473</v>
       </c>
       <c r="T14">
-        <v>0.9566266583333333</v>
+        <v>0.9925317715491223</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.5229061699999999</v>
+        <v>0.9873469206918554</v>
       </c>
       <c r="D15">
-        <v>0.25020352</v>
+        <v>0.9783477298494805</v>
       </c>
       <c r="E15">
-        <v>1.7748516</v>
+        <v>1.022000727039909</v>
       </c>
       <c r="F15">
-        <v>0.62952744</v>
+        <v>0.9893858949339559</v>
       </c>
       <c r="G15">
-        <v>0.67340451</v>
+        <v>0.9902249856618901</v>
       </c>
       <c r="H15">
-        <v>2.5748425</v>
+        <v>1.045129919038737</v>
       </c>
       <c r="I15">
-        <v>0.5229061699999999</v>
+        <v>0.9873469206918554</v>
       </c>
       <c r="J15">
-        <v>2.5748425</v>
+        <v>1.045129919038737</v>
       </c>
       <c r="K15">
-        <v>0.5229061699999999</v>
+        <v>0.9873469206918554</v>
       </c>
       <c r="L15">
-        <v>0.67340451</v>
+        <v>0.9902249856618901</v>
       </c>
       <c r="M15">
-        <v>1.624123505</v>
+        <v>1.017677452350313</v>
       </c>
       <c r="N15">
-        <v>1.624123505</v>
+        <v>1.017677452350313</v>
       </c>
       <c r="O15">
-        <v>1.674366203333333</v>
+        <v>1.019118543913512</v>
       </c>
       <c r="P15">
-        <v>1.25705106</v>
+        <v>1.007567275130827</v>
       </c>
       <c r="Q15">
-        <v>1.25705106</v>
+        <v>1.007567275130827</v>
       </c>
       <c r="R15">
-        <v>1.0735148375</v>
+        <v>1.002512186521084</v>
       </c>
       <c r="S15">
-        <v>1.0735148375</v>
+        <v>1.002512186521084</v>
       </c>
       <c r="T15">
-        <v>1.070955956666667</v>
+        <v>1.002072696202638</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,49 +1456,49 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.3679559</v>
+        <v>1.367955899999999</v>
       </c>
       <c r="D16">
-        <v>0.9618347200000001</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="E16">
-        <v>0.7938064500000001</v>
+        <v>0.7938064499999996</v>
       </c>
       <c r="F16">
-        <v>1.1014624</v>
+        <v>1.101462400000001</v>
       </c>
       <c r="G16">
-        <v>0.99179431</v>
+        <v>0.9917943100000015</v>
       </c>
       <c r="H16">
-        <v>0.5229061699999999</v>
+        <v>0.5229061699999994</v>
       </c>
       <c r="I16">
-        <v>1.3679559</v>
+        <v>1.367955899999999</v>
       </c>
       <c r="J16">
-        <v>0.5229061699999999</v>
+        <v>0.5229061699999994</v>
       </c>
       <c r="K16">
-        <v>1.3679559</v>
+        <v>1.367955899999999</v>
       </c>
       <c r="L16">
-        <v>0.99179431</v>
+        <v>0.9917943100000015</v>
       </c>
       <c r="M16">
-        <v>0.75735024</v>
+        <v>0.7573502400000005</v>
       </c>
       <c r="N16">
-        <v>0.75735024</v>
+        <v>0.7573502400000005</v>
       </c>
       <c r="O16">
-        <v>0.76950231</v>
+        <v>0.7695023100000001</v>
       </c>
       <c r="P16">
-        <v>0.9608854599999997</v>
+        <v>0.9608854600000001</v>
       </c>
       <c r="Q16">
-        <v>0.9608854599999997</v>
+        <v>0.9608854600000001</v>
       </c>
       <c r="R16">
         <v>1.06265307</v>
@@ -1501,7 +1507,7 @@
         <v>1.06265307</v>
       </c>
       <c r="T16">
-        <v>0.9566266583333332</v>
+        <v>0.9566266583333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.70705465</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="D17">
-        <v>0.4163156499999999</v>
+        <v>0.25020352</v>
       </c>
       <c r="E17">
-        <v>1.5352467</v>
+        <v>1.7748516</v>
       </c>
       <c r="F17">
-        <v>0.7523954700000001</v>
+        <v>0.62952744</v>
       </c>
       <c r="G17">
-        <v>0.7710542500000002</v>
+        <v>0.67340451</v>
       </c>
       <c r="H17">
-        <v>2.0119774</v>
+        <v>2.5748425</v>
       </c>
       <c r="I17">
-        <v>0.70705465</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="J17">
-        <v>2.0119774</v>
+        <v>2.5748425</v>
       </c>
       <c r="K17">
-        <v>0.70705465</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="L17">
-        <v>0.7710542500000002</v>
+        <v>0.67340451</v>
       </c>
       <c r="M17">
-        <v>1.391515825</v>
+        <v>1.624123505</v>
       </c>
       <c r="N17">
-        <v>1.391515825</v>
+        <v>1.624123505</v>
       </c>
       <c r="O17">
-        <v>1.439426116666667</v>
+        <v>1.674366203333333</v>
       </c>
       <c r="P17">
-        <v>1.1633621</v>
+        <v>1.25705106</v>
       </c>
       <c r="Q17">
-        <v>1.1633621</v>
+        <v>1.25705106</v>
       </c>
       <c r="R17">
-        <v>1.0492852375</v>
+        <v>1.0735148375</v>
       </c>
       <c r="S17">
-        <v>1.0492852375</v>
+        <v>1.0735148375</v>
       </c>
       <c r="T17">
-        <v>1.032340686666666</v>
+        <v>1.070955956666667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9514722727397256</v>
+        <v>1.3679559</v>
       </c>
       <c r="D18">
-        <v>1.16713988</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="E18">
-        <v>0.9406245706849314</v>
+        <v>0.7938064500000001</v>
       </c>
       <c r="F18">
-        <v>1.02100977479452</v>
+        <v>1.1014624</v>
       </c>
       <c r="G18">
-        <v>1.049626037671233</v>
+        <v>0.99179431</v>
       </c>
       <c r="H18">
-        <v>0.949923395068493</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="I18">
-        <v>0.9514722727397256</v>
+        <v>1.3679559</v>
       </c>
       <c r="J18">
-        <v>0.949923395068493</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="K18">
-        <v>0.9514722727397256</v>
+        <v>1.3679559</v>
       </c>
       <c r="L18">
-        <v>1.049626037671233</v>
+        <v>0.99179431</v>
       </c>
       <c r="M18">
-        <v>0.9997747163698629</v>
+        <v>0.75735024</v>
       </c>
       <c r="N18">
-        <v>0.9997747163698629</v>
+        <v>0.75735024</v>
       </c>
       <c r="O18">
-        <v>0.9800580011415524</v>
+        <v>0.76950231</v>
       </c>
       <c r="P18">
-        <v>0.9836739018264838</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="Q18">
-        <v>0.9836739018264838</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="R18">
-        <v>0.9756234945547944</v>
+        <v>1.06265307</v>
       </c>
       <c r="S18">
-        <v>0.9756234945547944</v>
+        <v>1.06265307</v>
       </c>
       <c r="T18">
-        <v>1.013299321826484</v>
+        <v>0.9566266583333332</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9505445952631577</v>
+        <v>0.70705465</v>
       </c>
       <c r="D19">
-        <v>0.6172963621052632</v>
+        <v>0.4163156499999999</v>
       </c>
       <c r="E19">
-        <v>1.262084492631579</v>
+        <v>1.5352467</v>
       </c>
       <c r="F19">
-        <v>0.8809990821052632</v>
+        <v>0.7523954700000001</v>
       </c>
       <c r="G19">
-        <v>0.8523795331578947</v>
+        <v>0.7710542500000002</v>
       </c>
       <c r="H19">
-        <v>1.463372223157895</v>
+        <v>2.0119774</v>
       </c>
       <c r="I19">
-        <v>0.9505445952631577</v>
+        <v>0.70705465</v>
       </c>
       <c r="J19">
-        <v>1.463372223157895</v>
+        <v>2.0119774</v>
       </c>
       <c r="K19">
-        <v>0.9505445952631577</v>
+        <v>0.70705465</v>
       </c>
       <c r="L19">
-        <v>0.8523795331578947</v>
+        <v>0.7710542500000002</v>
       </c>
       <c r="M19">
-        <v>1.157875878157895</v>
+        <v>1.391515825</v>
       </c>
       <c r="N19">
-        <v>1.157875878157895</v>
+        <v>1.391515825</v>
       </c>
       <c r="O19">
-        <v>1.192612082982456</v>
+        <v>1.439426116666667</v>
       </c>
       <c r="P19">
-        <v>1.088765450526316</v>
+        <v>1.1633621</v>
       </c>
       <c r="Q19">
-        <v>1.088765450526316</v>
+        <v>1.1633621</v>
       </c>
       <c r="R19">
-        <v>1.054210236710526</v>
+        <v>1.0492852375</v>
       </c>
       <c r="S19">
-        <v>1.054210236710526</v>
+        <v>1.0492852375</v>
       </c>
       <c r="T19">
-        <v>1.004446048070176</v>
+        <v>1.032340686666666</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9567933405263159</v>
+        <v>0.9514722727397256</v>
       </c>
       <c r="D20">
-        <v>1.149672160526316</v>
+        <v>1.16713988</v>
       </c>
       <c r="E20">
-        <v>0.9477376073684212</v>
+        <v>0.9406245706849314</v>
       </c>
       <c r="F20">
-        <v>1.017975865789474</v>
+        <v>1.02100977479452</v>
       </c>
       <c r="G20">
-        <v>1.043153866842105</v>
+        <v>1.049626037671233</v>
       </c>
       <c r="H20">
-        <v>0.9600666142105262</v>
+        <v>0.949923395068493</v>
       </c>
       <c r="I20">
-        <v>0.9567933405263159</v>
+        <v>0.9514722727397256</v>
       </c>
       <c r="J20">
-        <v>0.9600666142105262</v>
+        <v>0.949923395068493</v>
       </c>
       <c r="K20">
-        <v>0.9567933405263159</v>
+        <v>0.9514722727397256</v>
       </c>
       <c r="L20">
-        <v>1.043153866842105</v>
+        <v>1.049626037671233</v>
       </c>
       <c r="M20">
-        <v>1.001610240526316</v>
+        <v>0.9997747163698629</v>
       </c>
       <c r="N20">
-        <v>1.001610240526316</v>
+        <v>0.9997747163698629</v>
       </c>
       <c r="O20">
-        <v>0.9836526961403509</v>
+        <v>0.9800580011415524</v>
       </c>
       <c r="P20">
-        <v>0.9866712738596491</v>
+        <v>0.9836739018264838</v>
       </c>
       <c r="Q20">
-        <v>0.9866712738596491</v>
+        <v>0.9836739018264838</v>
       </c>
       <c r="R20">
-        <v>0.9792017905263158</v>
+        <v>0.9756234945547944</v>
       </c>
       <c r="S20">
-        <v>0.9792017905263158</v>
+        <v>0.9756234945547944</v>
       </c>
       <c r="T20">
-        <v>1.012566575877193</v>
+        <v>1.013299321826484</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.7094658101932654</v>
+        <v>0.9505445952631577</v>
       </c>
       <c r="D21">
-        <v>0.4456680743781916</v>
+        <v>0.6172963621052632</v>
       </c>
       <c r="E21">
-        <v>1.517071100800389</v>
+        <v>1.262084492631579</v>
       </c>
       <c r="F21">
-        <v>0.759973291157334</v>
+        <v>0.8809990821052632</v>
       </c>
       <c r="G21">
-        <v>0.7807582616836947</v>
+        <v>0.8523795331578947</v>
       </c>
       <c r="H21">
-        <v>1.987291489559742</v>
+        <v>1.463372223157895</v>
       </c>
       <c r="I21">
-        <v>0.7094658101932654</v>
+        <v>0.9505445952631577</v>
       </c>
       <c r="J21">
-        <v>1.987291489559742</v>
+        <v>1.463372223157895</v>
       </c>
       <c r="K21">
-        <v>0.7094658101932654</v>
+        <v>0.9505445952631577</v>
       </c>
       <c r="L21">
-        <v>0.7807582616836947</v>
+        <v>0.8523795331578947</v>
       </c>
       <c r="M21">
-        <v>1.384024875621718</v>
+        <v>1.157875878157895</v>
       </c>
       <c r="N21">
-        <v>1.384024875621718</v>
+        <v>1.157875878157895</v>
       </c>
       <c r="O21">
-        <v>1.428373617347942</v>
+        <v>1.192612082982456</v>
       </c>
       <c r="P21">
-        <v>1.159171853812234</v>
+        <v>1.088765450526316</v>
       </c>
       <c r="Q21">
-        <v>1.159171853812234</v>
+        <v>1.088765450526316</v>
       </c>
       <c r="R21">
-        <v>1.046745342907492</v>
+        <v>1.054210236710526</v>
       </c>
       <c r="S21">
-        <v>1.046745342907492</v>
+        <v>1.054210236710526</v>
       </c>
       <c r="T21">
-        <v>1.033371337962103</v>
+        <v>1.004446048070176</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.956837608256232</v>
+        <v>0.9567933405263159</v>
       </c>
       <c r="D22">
-        <v>0.8001049906340567</v>
+        <v>1.149672160526316</v>
       </c>
       <c r="E22">
-        <v>1.137938637739547</v>
+        <v>0.9477376073684212</v>
       </c>
       <c r="F22">
-        <v>0.94084302729389</v>
+        <v>1.017975865789474</v>
       </c>
       <c r="G22">
-        <v>0.9342608909187008</v>
+        <v>1.043153866842105</v>
       </c>
       <c r="H22">
-        <v>1.220094472832538</v>
+        <v>0.9600666142105262</v>
       </c>
       <c r="I22">
-        <v>0.956837608256232</v>
+        <v>0.9567933405263159</v>
       </c>
       <c r="J22">
-        <v>1.220094472832538</v>
+        <v>0.9600666142105262</v>
       </c>
       <c r="K22">
-        <v>0.956837608256232</v>
+        <v>0.9567933405263159</v>
       </c>
       <c r="L22">
-        <v>0.9342608909187008</v>
+        <v>1.043153866842105</v>
       </c>
       <c r="M22">
-        <v>1.07717768187562</v>
+        <v>1.001610240526316</v>
       </c>
       <c r="N22">
-        <v>1.07717768187562</v>
+        <v>1.001610240526316</v>
       </c>
       <c r="O22">
-        <v>1.097431333830262</v>
+        <v>0.9836526961403509</v>
       </c>
       <c r="P22">
-        <v>1.03706432400249</v>
+        <v>0.9866712738596491</v>
       </c>
       <c r="Q22">
-        <v>1.03706432400249</v>
+        <v>0.9866712738596491</v>
       </c>
       <c r="R22">
-        <v>1.017007645065926</v>
+        <v>0.9792017905263158</v>
       </c>
       <c r="S22">
-        <v>1.017007645065926</v>
+        <v>0.9792017905263158</v>
       </c>
       <c r="T22">
-        <v>0.9983466046124941</v>
+        <v>1.012566575877193</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9877932451931216</v>
+        <v>0.7094658101932654</v>
       </c>
       <c r="D23">
-        <v>1.012353087906899</v>
+        <v>0.4456680743781916</v>
       </c>
       <c r="E23">
-        <v>0.9958367111768504</v>
+        <v>1.517071100800389</v>
       </c>
       <c r="F23">
-        <v>1.003277000515178</v>
+        <v>0.759973291157334</v>
       </c>
       <c r="G23">
-        <v>1.009648920589846</v>
+        <v>0.7807582616836947</v>
       </c>
       <c r="H23">
-        <v>0.9842976226294291</v>
+        <v>1.987291489559742</v>
       </c>
       <c r="I23">
-        <v>0.9877932451931216</v>
+        <v>0.7094658101932654</v>
       </c>
       <c r="J23">
-        <v>0.9842976226294291</v>
+        <v>1.987291489559742</v>
       </c>
       <c r="K23">
-        <v>0.9877932451931216</v>
+        <v>0.7094658101932654</v>
       </c>
       <c r="L23">
-        <v>1.009648920589846</v>
+        <v>0.7807582616836947</v>
       </c>
       <c r="M23">
-        <v>0.9969732716096378</v>
+        <v>1.384024875621718</v>
       </c>
       <c r="N23">
-        <v>0.9969732716096378</v>
+        <v>1.384024875621718</v>
       </c>
       <c r="O23">
-        <v>0.996594418132042</v>
+        <v>1.428373617347942</v>
       </c>
       <c r="P23">
-        <v>0.9939132628041324</v>
+        <v>1.159171853812234</v>
       </c>
       <c r="Q23">
-        <v>0.9939132628041324</v>
+        <v>1.159171853812234</v>
       </c>
       <c r="R23">
-        <v>0.9923832584013798</v>
+        <v>1.046745342907492</v>
       </c>
       <c r="S23">
-        <v>0.9923832584013798</v>
+        <v>1.046745342907492</v>
       </c>
       <c r="T23">
-        <v>0.9988677646685543</v>
+        <v>1.033371337962103</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.012417350723668</v>
+        <v>0.956837608256232</v>
       </c>
       <c r="D24">
-        <v>1.001769513228698</v>
+        <v>0.8001049906340567</v>
       </c>
       <c r="E24">
-        <v>0.9972891075569355</v>
+        <v>1.137938637739547</v>
       </c>
       <c r="F24">
-        <v>0.9991714166296326</v>
+        <v>0.94084302729389</v>
       </c>
       <c r="G24">
-        <v>0.9937204182804564</v>
+        <v>0.9342608909187008</v>
       </c>
       <c r="H24">
-        <v>1.008235246009658</v>
+        <v>1.220094472832538</v>
       </c>
       <c r="I24">
-        <v>1.012417350723668</v>
+        <v>0.956837608256232</v>
       </c>
       <c r="J24">
-        <v>1.008235246009658</v>
+        <v>1.220094472832538</v>
       </c>
       <c r="K24">
-        <v>1.012417350723668</v>
+        <v>0.956837608256232</v>
       </c>
       <c r="L24">
-        <v>0.9937204182804564</v>
+        <v>0.9342608909187008</v>
       </c>
       <c r="M24">
-        <v>1.000977832145057</v>
+        <v>1.07717768187562</v>
       </c>
       <c r="N24">
-        <v>1.000977832145057</v>
+        <v>1.07717768187562</v>
       </c>
       <c r="O24">
-        <v>0.9997482572823498</v>
+        <v>1.097431333830262</v>
       </c>
       <c r="P24">
-        <v>1.004791005004594</v>
+        <v>1.03706432400249</v>
       </c>
       <c r="Q24">
-        <v>1.004791005004594</v>
+        <v>1.03706432400249</v>
       </c>
       <c r="R24">
-        <v>1.006697591434363</v>
+        <v>1.017007645065926</v>
       </c>
       <c r="S24">
-        <v>1.006697591434363</v>
+        <v>1.017007645065926</v>
       </c>
       <c r="T24">
-        <v>1.002100508738175</v>
+        <v>0.9983466046124941</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.026238597490308</v>
+        <v>0.9877932451931216</v>
       </c>
       <c r="D25">
-        <v>1.666904030482522</v>
+        <v>1.012353087906899</v>
       </c>
       <c r="E25">
-        <v>0.6015906712504764</v>
+        <v>0.9958367111768504</v>
       </c>
       <c r="F25">
-        <v>1.171660200104622</v>
+        <v>1.003277000515178</v>
       </c>
       <c r="G25">
-        <v>1.231504511976268</v>
+        <v>1.009648920589846</v>
       </c>
       <c r="H25">
-        <v>0.3714423812481314</v>
+        <v>0.9842976226294291</v>
       </c>
       <c r="I25">
-        <v>1.026238597490308</v>
+        <v>0.9877932451931216</v>
       </c>
       <c r="J25">
-        <v>0.3714423812481314</v>
+        <v>0.9842976226294291</v>
       </c>
       <c r="K25">
-        <v>1.026238597490308</v>
+        <v>0.9877932451931216</v>
       </c>
       <c r="L25">
-        <v>1.231504511976268</v>
+        <v>1.009648920589846</v>
       </c>
       <c r="M25">
-        <v>0.8014734466121994</v>
+        <v>0.9969732716096378</v>
       </c>
       <c r="N25">
-        <v>0.8014734466121994</v>
+        <v>0.9969732716096378</v>
       </c>
       <c r="O25">
-        <v>0.7348458548249583</v>
+        <v>0.996594418132042</v>
       </c>
       <c r="P25">
-        <v>0.8763951635715689</v>
+        <v>0.9939132628041324</v>
       </c>
       <c r="Q25">
-        <v>0.8763951635715689</v>
+        <v>0.9939132628041324</v>
       </c>
       <c r="R25">
-        <v>0.9138560220512537</v>
+        <v>0.9923832584013798</v>
       </c>
       <c r="S25">
-        <v>0.9138560220512537</v>
+        <v>0.9923832584013798</v>
       </c>
       <c r="T25">
-        <v>1.011556732092054</v>
+        <v>0.9988677646685543</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.112333449944351</v>
+        <v>1.012417350723668</v>
       </c>
       <c r="D26">
-        <v>1.054495661141747</v>
+        <v>1.001769513228698</v>
       </c>
       <c r="E26">
-        <v>0.8896802287133404</v>
+        <v>0.9972891075569355</v>
       </c>
       <c r="F26">
-        <v>1.055008481145014</v>
+        <v>0.9991714166296326</v>
       </c>
       <c r="G26">
-        <v>1.031417962512543</v>
+        <v>0.9937204182804564</v>
       </c>
       <c r="H26">
-        <v>0.7547194126561589</v>
+        <v>1.008235246009658</v>
       </c>
       <c r="I26">
-        <v>1.112333449944351</v>
+        <v>1.012417350723668</v>
       </c>
       <c r="J26">
-        <v>0.7547194126561589</v>
+        <v>1.008235246009658</v>
       </c>
       <c r="K26">
-        <v>1.112333449944351</v>
+        <v>1.012417350723668</v>
       </c>
       <c r="L26">
-        <v>1.031417962512543</v>
+        <v>0.9937204182804564</v>
       </c>
       <c r="M26">
-        <v>0.8930686875843509</v>
+        <v>1.000977832145057</v>
       </c>
       <c r="N26">
-        <v>0.8930686875843509</v>
+        <v>1.000977832145057</v>
       </c>
       <c r="O26">
-        <v>0.8919392012940141</v>
+        <v>0.9997482572823498</v>
       </c>
       <c r="P26">
-        <v>0.9661569417043511</v>
+        <v>1.004791005004594</v>
       </c>
       <c r="Q26">
-        <v>0.9661569417043511</v>
+        <v>1.004791005004594</v>
       </c>
       <c r="R26">
-        <v>1.002701068764351</v>
+        <v>1.006697591434363</v>
       </c>
       <c r="S26">
-        <v>1.002701068764351</v>
+        <v>1.006697591434363</v>
       </c>
       <c r="T26">
-        <v>0.9829425326855256</v>
+        <v>1.002100508738175</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9979128718268249</v>
+        <v>1.026238597490308</v>
       </c>
       <c r="D27">
-        <v>1.01973748468589</v>
+        <v>1.666904030482522</v>
       </c>
       <c r="E27">
-        <v>0.9888658016855725</v>
+        <v>0.6015906712504764</v>
       </c>
       <c r="F27">
-        <v>1.005165363597813</v>
+        <v>1.171660200104622</v>
       </c>
       <c r="G27">
-        <v>1.008149913662128</v>
+        <v>1.231504511976268</v>
       </c>
       <c r="H27">
-        <v>0.9800743683866489</v>
+        <v>0.3714423812481314</v>
       </c>
       <c r="I27">
-        <v>0.9979128718268249</v>
+        <v>1.026238597490308</v>
       </c>
       <c r="J27">
-        <v>0.9800743683866489</v>
+        <v>0.3714423812481314</v>
       </c>
       <c r="K27">
-        <v>0.9979128718268249</v>
+        <v>1.026238597490308</v>
       </c>
       <c r="L27">
-        <v>1.008149913662128</v>
+        <v>1.231504511976268</v>
       </c>
       <c r="M27">
-        <v>0.9941121410243883</v>
+        <v>0.8014734466121994</v>
       </c>
       <c r="N27">
-        <v>0.9941121410243883</v>
+        <v>0.8014734466121994</v>
       </c>
       <c r="O27">
-        <v>0.992363361244783</v>
+        <v>0.7348458548249583</v>
       </c>
       <c r="P27">
-        <v>0.9953790512918671</v>
+        <v>0.8763951635715689</v>
       </c>
       <c r="Q27">
-        <v>0.9953790512918671</v>
+        <v>0.8763951635715689</v>
       </c>
       <c r="R27">
-        <v>0.9960125064256066</v>
+        <v>0.9138560220512537</v>
       </c>
       <c r="S27">
-        <v>0.9960125064256066</v>
+        <v>0.9138560220512537</v>
       </c>
       <c r="T27">
-        <v>0.9999843006408128</v>
+        <v>1.011556732092054</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9660071142422785</v>
+        <v>1.112333449944351</v>
       </c>
       <c r="D28">
-        <v>1.016037041976239</v>
+        <v>1.054495661141747</v>
       </c>
       <c r="E28">
-        <v>1.012615006349163</v>
+        <v>0.8896802287133404</v>
       </c>
       <c r="F28">
-        <v>0.9930083561934849</v>
+        <v>1.055008481145014</v>
       </c>
       <c r="G28">
-        <v>1.004119987306768</v>
+        <v>1.031417962512543</v>
       </c>
       <c r="H28">
-        <v>1.03759621302832</v>
+        <v>0.7547194126561589</v>
       </c>
       <c r="I28">
-        <v>0.9660071142422785</v>
+        <v>1.112333449944351</v>
       </c>
       <c r="J28">
-        <v>1.03759621302832</v>
+        <v>0.7547194126561589</v>
       </c>
       <c r="K28">
-        <v>0.9660071142422785</v>
+        <v>1.112333449944351</v>
       </c>
       <c r="L28">
-        <v>1.004119987306768</v>
+        <v>1.031417962512543</v>
       </c>
       <c r="M28">
-        <v>1.020858100167544</v>
+        <v>0.8930686875843509</v>
       </c>
       <c r="N28">
-        <v>1.020858100167544</v>
+        <v>0.8930686875843509</v>
       </c>
       <c r="O28">
-        <v>1.018110402228084</v>
+        <v>0.8919392012940141</v>
       </c>
       <c r="P28">
-        <v>1.002574438192456</v>
+        <v>0.9661569417043511</v>
       </c>
       <c r="Q28">
-        <v>1.002574438192456</v>
+        <v>0.9661569417043511</v>
       </c>
       <c r="R28">
-        <v>0.9934326072049112</v>
+        <v>1.002701068764351</v>
       </c>
       <c r="S28">
-        <v>0.9934326072049112</v>
+        <v>1.002701068764351</v>
       </c>
       <c r="T28">
-        <v>1.004897286516042</v>
+        <v>0.9829425326855256</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9979128718268249</v>
+      </c>
+      <c r="D29">
+        <v>1.01973748468589</v>
+      </c>
+      <c r="E29">
+        <v>0.9888658016855725</v>
+      </c>
+      <c r="F29">
+        <v>1.005165363597813</v>
+      </c>
+      <c r="G29">
+        <v>1.008149913662128</v>
+      </c>
+      <c r="H29">
+        <v>0.9800743683866489</v>
+      </c>
+      <c r="I29">
+        <v>0.9979128718268249</v>
+      </c>
+      <c r="J29">
+        <v>0.9800743683866489</v>
+      </c>
+      <c r="K29">
+        <v>0.9979128718268249</v>
+      </c>
+      <c r="L29">
+        <v>1.008149913662128</v>
+      </c>
+      <c r="M29">
+        <v>0.9941121410243883</v>
+      </c>
+      <c r="N29">
+        <v>0.9941121410243883</v>
+      </c>
+      <c r="O29">
+        <v>0.992363361244783</v>
+      </c>
+      <c r="P29">
+        <v>0.9953790512918671</v>
+      </c>
+      <c r="Q29">
+        <v>0.9953790512918671</v>
+      </c>
+      <c r="R29">
+        <v>0.9960125064256066</v>
+      </c>
+      <c r="S29">
+        <v>0.9960125064256066</v>
+      </c>
+      <c r="T29">
+        <v>0.9999843006408128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9660071142422785</v>
+      </c>
+      <c r="D30">
+        <v>1.016037041976239</v>
+      </c>
+      <c r="E30">
+        <v>1.012615006349163</v>
+      </c>
+      <c r="F30">
+        <v>0.9930083561934849</v>
+      </c>
+      <c r="G30">
+        <v>1.004119987306768</v>
+      </c>
+      <c r="H30">
+        <v>1.03759621302832</v>
+      </c>
+      <c r="I30">
+        <v>0.9660071142422785</v>
+      </c>
+      <c r="J30">
+        <v>1.03759621302832</v>
+      </c>
+      <c r="K30">
+        <v>0.9660071142422785</v>
+      </c>
+      <c r="L30">
+        <v>1.004119987306768</v>
+      </c>
+      <c r="M30">
+        <v>1.020858100167544</v>
+      </c>
+      <c r="N30">
+        <v>1.020858100167544</v>
+      </c>
+      <c r="O30">
+        <v>1.018110402228084</v>
+      </c>
+      <c r="P30">
+        <v>1.002574438192456</v>
+      </c>
+      <c r="Q30">
+        <v>1.002574438192456</v>
+      </c>
+      <c r="R30">
+        <v>0.9934326072049112</v>
+      </c>
+      <c r="S30">
+        <v>0.9934326072049112</v>
+      </c>
+      <c r="T30">
+        <v>1.004897286516042</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9334137017759986</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9984126452817281</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.051356262338955</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9718141210010978</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9876167638481708</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.136731254946343</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9334137017759986</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.136731254946343</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9334137017759986</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9876167638481708</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.062174009397257</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.062174009397257</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.058568093711156</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.019253906856837</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.019253906856837</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9977938555866276</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9977938555866276</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.013224124865382</v>
       </c>
     </row>
